--- a/data-raw/FilledAllocationTemplate.xlsx
+++ b/data-raw/FilledAllocationTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3167F63-4EEF-BC4D-8AF7-DEEFA8173791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6E788-7AFB-184A-86F8-16F209B51982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34040" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7073" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7077" uniqueCount="109">
   <si>
     <t>Country</t>
   </si>
@@ -709,10 +709,10 @@
   <dimension ref="A1:O691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J154" sqref="J154"/>
+      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6787,6 +6787,12 @@
       <c r="H159" t="s">
         <v>55</v>
       </c>
+      <c r="I159" t="s">
+        <v>105</v>
+      </c>
+      <c r="J159" t="s">
+        <v>106</v>
+      </c>
       <c r="K159" t="s">
         <v>54</v>
       </c>
@@ -6964,6 +6970,12 @@
       </c>
       <c r="H164" t="s">
         <v>56</v>
+      </c>
+      <c r="I164" t="s">
+        <v>105</v>
+      </c>
+      <c r="J164" t="s">
+        <v>106</v>
       </c>
       <c r="K164" t="s">
         <v>54</v>

--- a/data-raw/FilledAllocationTemplate.xlsx
+++ b/data-raw/FilledAllocationTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D57421-1CC3-3145-8AF2-0680313F440C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B669D7E9-330F-FA46-8328-A0CC8D8B3937}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34040" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -391,8 +391,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +415,11 @@
         <fgColor rgb="FFFCFCAB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8A8A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -422,12 +433,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +739,10 @@
   <dimension ref="A1:O692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N641" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J691" sqref="J691"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -917,6 +929,7 @@
       <c r="L4" t="s">
         <v>26</v>
       </c>
+      <c r="M4" s="5"/>
       <c r="N4">
         <v>50</v>
       </c>
@@ -961,6 +974,7 @@
       <c r="L5" t="s">
         <v>27</v>
       </c>
+      <c r="M5" s="5"/>
       <c r="N5">
         <v>50</v>
       </c>
@@ -999,6 +1013,7 @@
       <c r="L6" t="s">
         <v>28</v>
       </c>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1075,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="3">
-        <v>6.6380320187426803E-2</v>
+        <v>6.6850176956350801E-2</v>
       </c>
       <c r="N8" s="3">
         <v>6.6380320187426803E-2</v>
@@ -1119,6 +1134,7 @@
       <c r="L9" t="s">
         <v>26</v>
       </c>
+      <c r="M9" s="5"/>
       <c r="N9">
         <v>50</v>
       </c>
@@ -1160,6 +1176,7 @@
       <c r="L10" t="s">
         <v>27</v>
       </c>
+      <c r="M10" s="5"/>
       <c r="N10">
         <v>50</v>
       </c>
@@ -1195,6 +1212,7 @@
       <c r="L11" t="s">
         <v>28</v>
       </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1273,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="M13" s="3">
-        <v>6.9145954027284601E-2</v>
+        <v>7.00492237788716E-2</v>
       </c>
       <c r="N13" s="3">
         <v>8.5903943771964107E-3</v>
@@ -1319,6 +1337,7 @@
       <c r="L14" t="s">
         <v>26</v>
       </c>
+      <c r="M14" s="5"/>
       <c r="N14">
         <v>50</v>
       </c>
@@ -1363,6 +1382,7 @@
       <c r="L15" t="s">
         <v>27</v>
       </c>
+      <c r="M15" s="5"/>
       <c r="N15">
         <v>50</v>
       </c>
@@ -1401,6 +1421,7 @@
       <c r="L16" t="s">
         <v>28</v>
       </c>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1479,7 +1500,7 @@
         <v>25</v>
       </c>
       <c r="M18" s="3">
-        <v>3.4361577508785601E-2</v>
+        <v>3.46047974832875E-2</v>
       </c>
       <c r="N18" s="3">
         <v>3.4361577508785601E-2</v>
@@ -1525,6 +1546,7 @@
       <c r="L19" t="s">
         <v>26</v>
       </c>
+      <c r="M19" s="5"/>
       <c r="N19">
         <v>100</v>
       </c>
@@ -1563,6 +1585,7 @@
       <c r="L20" t="s">
         <v>27</v>
       </c>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1595,6 +1618,7 @@
       <c r="L21" t="s">
         <v>28</v>
       </c>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1673,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="M23" s="3">
-        <v>2.8779667351896802E-2</v>
+        <v>2.9155622870124999E-2</v>
       </c>
       <c r="N23" s="3">
         <v>1.5228426395939101E-2</v>
@@ -1719,6 +1743,7 @@
       <c r="L24" t="s">
         <v>26</v>
       </c>
+      <c r="M24" s="5"/>
       <c r="N24">
         <v>50</v>
       </c>
@@ -1763,6 +1788,7 @@
       <c r="L25" t="s">
         <v>27</v>
       </c>
+      <c r="M25" s="5"/>
       <c r="N25">
         <v>50</v>
       </c>
@@ -1801,6 +1827,7 @@
       <c r="L26" t="s">
         <v>28</v>
       </c>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1877,7 +1904,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="3">
-        <v>1.3081666978134901E-3</v>
+        <v>1.32525558500568E-3</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3">
@@ -1921,6 +1948,7 @@
       <c r="L29" t="s">
         <v>26</v>
       </c>
+      <c r="M29" s="5"/>
       <c r="O29">
         <v>50</v>
       </c>
@@ -1962,6 +1990,7 @@
       <c r="L30" t="s">
         <v>27</v>
       </c>
+      <c r="M30" s="5"/>
       <c r="O30">
         <v>50</v>
       </c>
@@ -1997,6 +2026,7 @@
       <c r="L31" t="s">
         <v>28</v>
       </c>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -2073,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="3">
-        <v>1.86880956830499E-4</v>
+        <v>1.8932222642938299E-4</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3">
@@ -2117,6 +2147,7 @@
       <c r="L34" t="s">
         <v>26</v>
       </c>
+      <c r="M34" s="5"/>
       <c r="O34">
         <v>50</v>
       </c>
@@ -2158,6 +2189,7 @@
       <c r="L35" t="s">
         <v>27</v>
       </c>
+      <c r="M35" s="5"/>
       <c r="O35">
         <v>50</v>
       </c>
@@ -2193,6 +2225,7 @@
       <c r="L36" t="s">
         <v>28</v>
       </c>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -2271,7 +2304,7 @@
         <v>25</v>
       </c>
       <c r="M38" s="3">
-        <v>0.128013455428892</v>
+        <v>0.12968572510412699</v>
       </c>
       <c r="N38" s="3">
         <v>5.7008980866848899E-2</v>
@@ -2317,6 +2350,7 @@
       <c r="L39" t="s">
         <v>26</v>
       </c>
+      <c r="M39" s="5"/>
       <c r="N39">
         <v>100</v>
       </c>
@@ -2355,6 +2389,7 @@
       <c r="L40" t="s">
         <v>27</v>
       </c>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2387,6 +2422,7 @@
       <c r="L41" t="s">
         <v>28</v>
       </c>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -2463,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="M43" s="3">
-        <v>3.9047247169074598E-4</v>
+        <v>3.93236335037357E-4</v>
       </c>
       <c r="N43" s="3">
         <v>3.9047247169074598E-4</v>
@@ -2507,6 +2543,7 @@
       <c r="L44" t="s">
         <v>26</v>
       </c>
+      <c r="M44" s="5"/>
       <c r="N44">
         <v>100</v>
       </c>
@@ -2542,6 +2579,7 @@
       <c r="L45" t="s">
         <v>27</v>
       </c>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2574,6 +2612,7 @@
       <c r="L46" t="s">
         <v>28</v>
       </c>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2694,6 +2733,7 @@
       <c r="L49" t="s">
         <v>26</v>
       </c>
+      <c r="M49" s="5"/>
       <c r="N49">
         <v>100</v>
       </c>
@@ -2729,6 +2769,7 @@
       <c r="L50" t="s">
         <v>27</v>
       </c>
+      <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -2761,6 +2802,7 @@
       <c r="L51" t="s">
         <v>28</v>
       </c>
+      <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -2885,6 +2927,7 @@
       <c r="L54" t="s">
         <v>26</v>
       </c>
+      <c r="M54" s="5"/>
       <c r="N54">
         <v>100</v>
       </c>
@@ -2923,6 +2966,7 @@
       <c r="L55" t="s">
         <v>27</v>
       </c>
+      <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -2955,6 +2999,7 @@
       <c r="L56" t="s">
         <v>28</v>
       </c>
+      <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -3075,6 +3120,7 @@
       <c r="L59" t="s">
         <v>26</v>
       </c>
+      <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -3107,6 +3153,7 @@
       <c r="L60" t="s">
         <v>27</v>
       </c>
+      <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -3139,6 +3186,7 @@
       <c r="L61" t="s">
         <v>28</v>
       </c>
+      <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -3263,6 +3311,7 @@
       <c r="L64" t="s">
         <v>26</v>
       </c>
+      <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -3295,6 +3344,7 @@
       <c r="L65" t="s">
         <v>27</v>
       </c>
+      <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -3327,6 +3377,7 @@
       <c r="L66" t="s">
         <v>28</v>
       </c>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -3447,6 +3498,7 @@
       <c r="L69" t="s">
         <v>26</v>
       </c>
+      <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -3479,6 +3531,7 @@
       <c r="L70" t="s">
         <v>27</v>
       </c>
+      <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -3511,6 +3564,7 @@
       <c r="L71" t="s">
         <v>28</v>
       </c>
+      <c r="M71" s="5"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -3631,6 +3685,7 @@
       <c r="L74" t="s">
         <v>26</v>
       </c>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -3663,6 +3718,7 @@
       <c r="L75" t="s">
         <v>27</v>
       </c>
+      <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -3695,6 +3751,7 @@
       <c r="L76" t="s">
         <v>28</v>
       </c>
+      <c r="M76" s="5"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -3815,6 +3872,7 @@
       <c r="L79" t="s">
         <v>26</v>
       </c>
+      <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -3847,6 +3905,7 @@
       <c r="L80" t="s">
         <v>27</v>
       </c>
+      <c r="M80" s="5"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -3879,6 +3938,7 @@
       <c r="L81" t="s">
         <v>28</v>
       </c>
+      <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -3999,6 +4059,7 @@
       <c r="L84" t="s">
         <v>26</v>
       </c>
+      <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -4031,6 +4092,7 @@
       <c r="L85" t="s">
         <v>27</v>
       </c>
+      <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -4063,6 +4125,7 @@
       <c r="L86" t="s">
         <v>28</v>
       </c>
+      <c r="M86" s="5"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -4187,6 +4250,7 @@
       <c r="L89" t="s">
         <v>26</v>
       </c>
+      <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -4219,6 +4283,7 @@
       <c r="L90" t="s">
         <v>27</v>
       </c>
+      <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -4251,6 +4316,7 @@
       <c r="L91" t="s">
         <v>28</v>
       </c>
+      <c r="M91" s="5"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -4375,6 +4441,7 @@
       <c r="L94" t="s">
         <v>26</v>
       </c>
+      <c r="M94" s="5"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -4407,6 +4474,7 @@
       <c r="L95" t="s">
         <v>27</v>
       </c>
+      <c r="M95" s="5"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -4439,6 +4507,7 @@
       <c r="L96" t="s">
         <v>28</v>
       </c>
+      <c r="M96" s="5"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -4563,6 +4632,7 @@
       <c r="L99" t="s">
         <v>26</v>
       </c>
+      <c r="M99" s="5"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -4595,6 +4665,7 @@
       <c r="L100" t="s">
         <v>27</v>
       </c>
+      <c r="M100" s="5"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -4627,6 +4698,7 @@
       <c r="L101" t="s">
         <v>28</v>
       </c>
+      <c r="M101" s="5"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -4751,6 +4823,7 @@
       <c r="L104" t="s">
         <v>26</v>
       </c>
+      <c r="M104" s="5"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -4783,6 +4856,7 @@
       <c r="L105" t="s">
         <v>27</v>
       </c>
+      <c r="M105" s="5"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -4815,6 +4889,7 @@
       <c r="L106" t="s">
         <v>28</v>
       </c>
+      <c r="M106" s="5"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -4939,6 +5014,7 @@
       <c r="L109" t="s">
         <v>26</v>
       </c>
+      <c r="M109" s="5"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -4971,6 +5047,7 @@
       <c r="L110" t="s">
         <v>27</v>
       </c>
+      <c r="M110" s="5"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -5003,6 +5080,7 @@
       <c r="L111" t="s">
         <v>28</v>
       </c>
+      <c r="M111" s="5"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -5123,6 +5201,7 @@
       <c r="L114" t="s">
         <v>26</v>
       </c>
+      <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -5155,6 +5234,7 @@
       <c r="L115" t="s">
         <v>27</v>
       </c>
+      <c r="M115" s="5"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -5187,6 +5267,7 @@
       <c r="L116" t="s">
         <v>28</v>
       </c>
+      <c r="M116" s="5"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
@@ -5311,6 +5392,7 @@
       <c r="L119" t="s">
         <v>26</v>
       </c>
+      <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -5343,6 +5425,7 @@
       <c r="L120" t="s">
         <v>27</v>
       </c>
+      <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -5375,6 +5458,7 @@
       <c r="L121" t="s">
         <v>28</v>
       </c>
+      <c r="M121" s="5"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -5495,6 +5579,7 @@
       <c r="L124" t="s">
         <v>26</v>
       </c>
+      <c r="M124" s="5"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -5527,6 +5612,7 @@
       <c r="L125" t="s">
         <v>27</v>
       </c>
+      <c r="M125" s="5"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -5559,6 +5645,7 @@
       <c r="L126" t="s">
         <v>28</v>
       </c>
+      <c r="M126" s="5"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -5683,6 +5770,7 @@
       <c r="L129" t="s">
         <v>26</v>
       </c>
+      <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -5715,6 +5803,7 @@
       <c r="L130" t="s">
         <v>27</v>
       </c>
+      <c r="M130" s="5"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -5747,6 +5836,7 @@
       <c r="L131" t="s">
         <v>28</v>
       </c>
+      <c r="M131" s="5"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
@@ -5871,6 +5961,7 @@
       <c r="L134" t="s">
         <v>26</v>
       </c>
+      <c r="M134" s="5"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -5903,6 +5994,7 @@
       <c r="L135" t="s">
         <v>27</v>
       </c>
+      <c r="M135" s="5"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -5935,6 +6027,7 @@
       <c r="L136" t="s">
         <v>28</v>
       </c>
+      <c r="M136" s="5"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
@@ -6059,6 +6152,7 @@
       <c r="L139" t="s">
         <v>26</v>
       </c>
+      <c r="M139" s="5"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -6091,6 +6185,7 @@
       <c r="L140" t="s">
         <v>27</v>
       </c>
+      <c r="M140" s="5"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -6123,6 +6218,7 @@
       <c r="L141" t="s">
         <v>28</v>
       </c>
+      <c r="M141" s="5"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
@@ -6247,6 +6343,7 @@
       <c r="L144" t="s">
         <v>26</v>
       </c>
+      <c r="M144" s="5"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -6285,6 +6382,7 @@
       <c r="L145" t="s">
         <v>27</v>
       </c>
+      <c r="M145" s="5"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -6317,6 +6415,7 @@
       <c r="L146" t="s">
         <v>28</v>
       </c>
+      <c r="M146" s="5"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
@@ -6441,6 +6540,7 @@
       <c r="L149" t="s">
         <v>26</v>
       </c>
+      <c r="M149" s="5"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -6473,6 +6573,7 @@
       <c r="L150" t="s">
         <v>27</v>
       </c>
+      <c r="M150" s="5"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -6505,6 +6606,7 @@
       <c r="L151" t="s">
         <v>28</v>
       </c>
+      <c r="M151" s="5"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -6629,6 +6731,7 @@
       <c r="L154" t="s">
         <v>26</v>
       </c>
+      <c r="M154" s="5"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -6661,6 +6764,7 @@
       <c r="L155" t="s">
         <v>27</v>
       </c>
+      <c r="M155" s="5"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -6693,6 +6797,7 @@
       <c r="L156" t="s">
         <v>28</v>
       </c>
+      <c r="M156" s="5"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
@@ -6817,6 +6922,7 @@
       <c r="L159" t="s">
         <v>26</v>
       </c>
+      <c r="M159" s="5"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -6849,6 +6955,7 @@
       <c r="L160" t="s">
         <v>27</v>
       </c>
+      <c r="M160" s="5"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -6881,6 +6988,7 @@
       <c r="L161" t="s">
         <v>28</v>
       </c>
+      <c r="M161" s="5"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -7001,6 +7109,7 @@
       <c r="L164" t="s">
         <v>26</v>
       </c>
+      <c r="M164" s="5"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -7033,6 +7142,7 @@
       <c r="L165" t="s">
         <v>27</v>
       </c>
+      <c r="M165" s="5"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -7065,6 +7175,7 @@
       <c r="L166" t="s">
         <v>28</v>
       </c>
+      <c r="M166" s="5"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
@@ -7185,6 +7296,7 @@
       <c r="L169" t="s">
         <v>26</v>
       </c>
+      <c r="M169" s="5"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -7217,6 +7329,7 @@
       <c r="L170" t="s">
         <v>27</v>
       </c>
+      <c r="M170" s="5"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -7249,6 +7362,7 @@
       <c r="L171" t="s">
         <v>28</v>
       </c>
+      <c r="M171" s="5"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
@@ -7373,6 +7487,7 @@
       <c r="L174" t="s">
         <v>26</v>
       </c>
+      <c r="M174" s="5"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -7405,6 +7520,7 @@
       <c r="L175" t="s">
         <v>27</v>
       </c>
+      <c r="M175" s="5"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -7437,6 +7553,7 @@
       <c r="L176" t="s">
         <v>28</v>
       </c>
+      <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
@@ -7557,6 +7674,7 @@
       <c r="L179" t="s">
         <v>26</v>
       </c>
+      <c r="M179" s="5"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -7589,6 +7707,7 @@
       <c r="L180" t="s">
         <v>27</v>
       </c>
+      <c r="M180" s="5"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -7621,6 +7740,7 @@
       <c r="L181" t="s">
         <v>28</v>
       </c>
+      <c r="M181" s="5"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
@@ -7741,6 +7861,7 @@
       <c r="L184" t="s">
         <v>26</v>
       </c>
+      <c r="M184" s="5"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -7773,6 +7894,7 @@
       <c r="L185" t="s">
         <v>27</v>
       </c>
+      <c r="M185" s="5"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -7805,6 +7927,7 @@
       <c r="L186" t="s">
         <v>28</v>
       </c>
+      <c r="M186" s="5"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
@@ -7925,6 +8048,7 @@
       <c r="L189" t="s">
         <v>26</v>
       </c>
+      <c r="M189" s="5"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -7957,6 +8081,7 @@
       <c r="L190" t="s">
         <v>27</v>
       </c>
+      <c r="M190" s="5"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -7989,6 +8114,7 @@
       <c r="L191" t="s">
         <v>28</v>
       </c>
+      <c r="M191" s="5"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -8109,6 +8235,7 @@
       <c r="L194" t="s">
         <v>26</v>
       </c>
+      <c r="M194" s="5"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
@@ -8141,6 +8268,7 @@
       <c r="L195" t="s">
         <v>27</v>
       </c>
+      <c r="M195" s="5"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -8173,6 +8301,7 @@
       <c r="L196" t="s">
         <v>28</v>
       </c>
+      <c r="M196" s="5"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
@@ -8293,6 +8422,7 @@
       <c r="L199" t="s">
         <v>26</v>
       </c>
+      <c r="M199" s="5"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -8325,6 +8455,7 @@
       <c r="L200" t="s">
         <v>27</v>
       </c>
+      <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -8357,6 +8488,7 @@
       <c r="L201" t="s">
         <v>28</v>
       </c>
+      <c r="M201" s="5"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
@@ -8481,6 +8613,7 @@
       <c r="L204" t="s">
         <v>26</v>
       </c>
+      <c r="M204" s="5"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -8513,6 +8646,7 @@
       <c r="L205" t="s">
         <v>27</v>
       </c>
+      <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -8545,6 +8679,7 @@
       <c r="L206" t="s">
         <v>28</v>
       </c>
+      <c r="M206" s="5"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
@@ -8665,6 +8800,7 @@
       <c r="L209" t="s">
         <v>26</v>
       </c>
+      <c r="M209" s="5"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -8697,6 +8833,7 @@
       <c r="L210" t="s">
         <v>27</v>
       </c>
+      <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -8729,6 +8866,7 @@
       <c r="L211" t="s">
         <v>28</v>
       </c>
+      <c r="M211" s="5"/>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
@@ -8853,6 +8991,7 @@
       <c r="L214" t="s">
         <v>26</v>
       </c>
+      <c r="M214" s="5"/>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -8885,6 +9024,7 @@
       <c r="L215" t="s">
         <v>27</v>
       </c>
+      <c r="M215" s="5"/>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -8917,6 +9057,7 @@
       <c r="L216" t="s">
         <v>28</v>
       </c>
+      <c r="M216" s="5"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
@@ -9041,6 +9182,7 @@
       <c r="L219" t="s">
         <v>26</v>
       </c>
+      <c r="M219" s="5"/>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -9073,6 +9215,7 @@
       <c r="L220" t="s">
         <v>27</v>
       </c>
+      <c r="M220" s="5"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -9105,6 +9248,7 @@
       <c r="L221" t="s">
         <v>28</v>
       </c>
+      <c r="M221" s="5"/>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
@@ -9229,6 +9373,7 @@
       <c r="L224" t="s">
         <v>26</v>
       </c>
+      <c r="M224" s="5"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -9261,6 +9406,7 @@
       <c r="L225" t="s">
         <v>27</v>
       </c>
+      <c r="M225" s="5"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -9293,6 +9439,7 @@
       <c r="L226" t="s">
         <v>28</v>
       </c>
+      <c r="M226" s="5"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
@@ -9417,6 +9564,7 @@
       <c r="L229" t="s">
         <v>26</v>
       </c>
+      <c r="M229" s="5"/>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -9455,6 +9603,7 @@
       <c r="L230" t="s">
         <v>27</v>
       </c>
+      <c r="M230" s="5"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -9487,6 +9636,7 @@
       <c r="L231" t="s">
         <v>28</v>
       </c>
+      <c r="M231" s="5"/>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
@@ -9611,6 +9761,7 @@
       <c r="L234" t="s">
         <v>26</v>
       </c>
+      <c r="M234" s="5"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -9643,6 +9794,7 @@
       <c r="L235" t="s">
         <v>27</v>
       </c>
+      <c r="M235" s="5"/>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -9675,6 +9827,7 @@
       <c r="L236" t="s">
         <v>28</v>
       </c>
+      <c r="M236" s="5"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
@@ -9795,6 +9948,7 @@
       <c r="L239" t="s">
         <v>26</v>
       </c>
+      <c r="M239" s="5"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -9827,6 +9981,7 @@
       <c r="L240" t="s">
         <v>27</v>
       </c>
+      <c r="M240" s="5"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -9859,6 +10014,7 @@
       <c r="L241" t="s">
         <v>28</v>
       </c>
+      <c r="M241" s="5"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
@@ -9979,6 +10135,7 @@
       <c r="L244" t="s">
         <v>26</v>
       </c>
+      <c r="M244" s="5"/>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -10011,6 +10168,7 @@
       <c r="L245" t="s">
         <v>27</v>
       </c>
+      <c r="M245" s="5"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -10043,6 +10201,7 @@
       <c r="L246" t="s">
         <v>28</v>
       </c>
+      <c r="M246" s="5"/>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
@@ -10163,6 +10322,7 @@
       <c r="L249" t="s">
         <v>26</v>
       </c>
+      <c r="M249" s="5"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -10195,6 +10355,7 @@
       <c r="L250" t="s">
         <v>27</v>
       </c>
+      <c r="M250" s="5"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -10227,6 +10388,7 @@
       <c r="L251" t="s">
         <v>28</v>
       </c>
+      <c r="M251" s="5"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
@@ -10351,6 +10513,7 @@
       <c r="L254" t="s">
         <v>26</v>
       </c>
+      <c r="M254" s="5"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -10383,6 +10546,7 @@
       <c r="L255" t="s">
         <v>27</v>
       </c>
+      <c r="M255" s="5"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -10415,6 +10579,7 @@
       <c r="L256" t="s">
         <v>28</v>
       </c>
+      <c r="M256" s="5"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
@@ -10539,6 +10704,7 @@
       <c r="L259" t="s">
         <v>26</v>
       </c>
+      <c r="M259" s="5"/>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -10577,6 +10743,7 @@
       <c r="L260" t="s">
         <v>27</v>
       </c>
+      <c r="M260" s="5"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -10609,6 +10776,7 @@
       <c r="L261" t="s">
         <v>28</v>
       </c>
+      <c r="M261" s="5"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
@@ -10729,6 +10897,7 @@
       <c r="L264" t="s">
         <v>26</v>
       </c>
+      <c r="M264" s="5"/>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -10761,6 +10930,7 @@
       <c r="L265" t="s">
         <v>27</v>
       </c>
+      <c r="M265" s="5"/>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -10793,6 +10963,7 @@
       <c r="L266" t="s">
         <v>28</v>
       </c>
+      <c r="M266" s="5"/>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
@@ -10913,6 +11084,7 @@
       <c r="L269" t="s">
         <v>26</v>
       </c>
+      <c r="M269" s="5"/>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -10945,6 +11117,7 @@
       <c r="L270" t="s">
         <v>27</v>
       </c>
+      <c r="M270" s="5"/>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -10977,6 +11150,7 @@
       <c r="L271" t="s">
         <v>28</v>
       </c>
+      <c r="M271" s="5"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
@@ -11097,6 +11271,7 @@
       <c r="L274" t="s">
         <v>26</v>
       </c>
+      <c r="M274" s="5"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -11129,6 +11304,7 @@
       <c r="L275" t="s">
         <v>27</v>
       </c>
+      <c r="M275" s="5"/>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -11161,6 +11337,7 @@
       <c r="L276" t="s">
         <v>28</v>
       </c>
+      <c r="M276" s="5"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
@@ -11281,6 +11458,7 @@
       <c r="L279" t="s">
         <v>26</v>
       </c>
+      <c r="M279" s="5"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -11313,6 +11491,7 @@
       <c r="L280" t="s">
         <v>27</v>
       </c>
+      <c r="M280" s="5"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -11345,6 +11524,7 @@
       <c r="L281" t="s">
         <v>28</v>
       </c>
+      <c r="M281" s="5"/>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
@@ -11465,6 +11645,7 @@
       <c r="L284" t="s">
         <v>26</v>
       </c>
+      <c r="M284" s="5"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -11497,6 +11678,7 @@
       <c r="L285" t="s">
         <v>27</v>
       </c>
+      <c r="M285" s="5"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -11529,6 +11711,7 @@
       <c r="L286" t="s">
         <v>28</v>
       </c>
+      <c r="M286" s="5"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
@@ -11649,6 +11832,7 @@
       <c r="L289" t="s">
         <v>26</v>
       </c>
+      <c r="M289" s="5"/>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
@@ -11681,6 +11865,7 @@
       <c r="L290" t="s">
         <v>27</v>
       </c>
+      <c r="M290" s="5"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -11713,6 +11898,7 @@
       <c r="L291" t="s">
         <v>28</v>
       </c>
+      <c r="M291" s="5"/>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
@@ -11833,6 +12019,7 @@
       <c r="L294" t="s">
         <v>26</v>
       </c>
+      <c r="M294" s="5"/>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -11865,6 +12052,7 @@
       <c r="L295" t="s">
         <v>27</v>
       </c>
+      <c r="M295" s="5"/>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -11897,6 +12085,7 @@
       <c r="L296" t="s">
         <v>28</v>
       </c>
+      <c r="M296" s="5"/>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
@@ -12017,6 +12206,7 @@
       <c r="L299" t="s">
         <v>26</v>
       </c>
+      <c r="M299" s="5"/>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -12049,6 +12239,7 @@
       <c r="L300" t="s">
         <v>27</v>
       </c>
+      <c r="M300" s="5"/>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -12081,6 +12272,7 @@
       <c r="L301" t="s">
         <v>28</v>
       </c>
+      <c r="M301" s="5"/>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
@@ -12201,6 +12393,7 @@
       <c r="L304" t="s">
         <v>26</v>
       </c>
+      <c r="M304" s="5"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -12233,6 +12426,7 @@
       <c r="L305" t="s">
         <v>27</v>
       </c>
+      <c r="M305" s="5"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -12265,6 +12459,7 @@
       <c r="L306" t="s">
         <v>28</v>
       </c>
+      <c r="M306" s="5"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
@@ -12385,6 +12580,7 @@
       <c r="L309" t="s">
         <v>26</v>
       </c>
+      <c r="M309" s="5"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -12417,6 +12613,7 @@
       <c r="L310" t="s">
         <v>27</v>
       </c>
+      <c r="M310" s="5"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -12449,6 +12646,7 @@
       <c r="L311" t="s">
         <v>28</v>
       </c>
+      <c r="M311" s="5"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
@@ -12569,6 +12767,7 @@
       <c r="L314" t="s">
         <v>26</v>
       </c>
+      <c r="M314" s="5"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -12601,6 +12800,7 @@
       <c r="L315" t="s">
         <v>27</v>
       </c>
+      <c r="M315" s="5"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -12633,6 +12833,7 @@
       <c r="L316" t="s">
         <v>28</v>
       </c>
+      <c r="M316" s="5"/>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
@@ -12753,6 +12954,7 @@
       <c r="L319" t="s">
         <v>26</v>
       </c>
+      <c r="M319" s="5"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -12785,6 +12987,7 @@
       <c r="L320" t="s">
         <v>27</v>
       </c>
+      <c r="M320" s="5"/>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -12817,6 +13020,7 @@
       <c r="L321" t="s">
         <v>28</v>
       </c>
+      <c r="M321" s="5"/>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
@@ -12941,6 +13145,7 @@
       <c r="L324" t="s">
         <v>26</v>
       </c>
+      <c r="M324" s="5"/>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -12973,6 +13178,7 @@
       <c r="L325" t="s">
         <v>27</v>
       </c>
+      <c r="M325" s="5"/>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -13005,6 +13211,7 @@
       <c r="L326" t="s">
         <v>28</v>
       </c>
+      <c r="M326" s="5"/>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
@@ -13125,6 +13332,7 @@
       <c r="L329" t="s">
         <v>26</v>
       </c>
+      <c r="M329" s="5"/>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -13157,6 +13365,7 @@
       <c r="L330" t="s">
         <v>27</v>
       </c>
+      <c r="M330" s="5"/>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -13189,6 +13398,7 @@
       <c r="L331" t="s">
         <v>28</v>
       </c>
+      <c r="M331" s="5"/>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
@@ -13309,6 +13519,7 @@
       <c r="L334" t="s">
         <v>26</v>
       </c>
+      <c r="M334" s="5"/>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -13341,6 +13552,7 @@
       <c r="L335" t="s">
         <v>27</v>
       </c>
+      <c r="M335" s="5"/>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -13373,6 +13585,7 @@
       <c r="L336" t="s">
         <v>28</v>
       </c>
+      <c r="M336" s="5"/>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
@@ -13497,6 +13710,7 @@
       <c r="L339" t="s">
         <v>26</v>
       </c>
+      <c r="M339" s="5"/>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -13535,6 +13749,7 @@
       <c r="L340" t="s">
         <v>27</v>
       </c>
+      <c r="M340" s="5"/>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -13573,6 +13788,7 @@
       <c r="L341" t="s">
         <v>28</v>
       </c>
+      <c r="M341" s="5"/>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -13610,6 +13826,9 @@
       </c>
       <c r="L342" t="s">
         <v>113</v>
+      </c>
+      <c r="M342" s="1">
+        <v>828</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
@@ -13645,8 +13864,8 @@
       <c r="L343" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M343" s="1">
-        <v>828</v>
+      <c r="M343" s="3">
+        <v>2.6419067674930598E-2</v>
       </c>
       <c r="N343" s="1">
         <v>828</v>
@@ -13688,9 +13907,7 @@
       <c r="L344" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M344" s="3">
-        <v>2.6419067674930598E-2</v>
-      </c>
+      <c r="M344" s="5"/>
       <c r="N344" s="3">
         <v>2.6419067674930598E-2</v>
       </c>
@@ -13735,6 +13952,7 @@
       <c r="L345" t="s">
         <v>26</v>
       </c>
+      <c r="M345" s="5"/>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -13767,6 +13985,7 @@
       <c r="L346" t="s">
         <v>27</v>
       </c>
+      <c r="M346" s="5"/>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -13798,6 +14017,9 @@
       </c>
       <c r="L347" t="s">
         <v>28</v>
+      </c>
+      <c r="M347" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
@@ -13833,8 +14055,8 @@
       <c r="L348" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M348" s="1">
-        <v>40</v>
+      <c r="M348" s="3">
+        <v>8.6003010105353698E-4</v>
       </c>
       <c r="N348" s="1"/>
       <c r="O348" s="1">
@@ -13874,9 +14096,7 @@
       <c r="L349" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M349" s="3">
-        <v>8.6003010105353698E-4</v>
-      </c>
+      <c r="M349" s="5"/>
       <c r="N349" s="3"/>
       <c r="O349" s="3">
         <v>8.6003010105353698E-4</v>
@@ -13919,6 +14139,7 @@
       <c r="L350" t="s">
         <v>26</v>
       </c>
+      <c r="M350" s="5"/>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -13951,6 +14172,7 @@
       <c r="L351" t="s">
         <v>27</v>
       </c>
+      <c r="M351" s="5"/>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -13982,6 +14204,9 @@
       </c>
       <c r="L352" t="s">
         <v>28</v>
+      </c>
+      <c r="M352" s="1">
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
@@ -14017,8 +14242,8 @@
       <c r="L353" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M353" s="1">
-        <v>455</v>
+      <c r="M353" s="3">
+        <v>1.45177243865863E-2</v>
       </c>
       <c r="N353" s="1">
         <v>455</v>
@@ -14058,9 +14283,7 @@
       <c r="L354" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M354" s="3">
-        <v>1.45177243865863E-2</v>
-      </c>
+      <c r="M354" s="5"/>
       <c r="N354" s="3">
         <v>1.45177243865863E-2</v>
       </c>
@@ -14103,6 +14326,7 @@
       <c r="L355" t="s">
         <v>26</v>
       </c>
+      <c r="M355" s="5"/>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -14135,6 +14359,7 @@
       <c r="L356" t="s">
         <v>27</v>
       </c>
+      <c r="M356" s="5"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -14166,6 +14391,9 @@
       </c>
       <c r="L357" t="s">
         <v>28</v>
+      </c>
+      <c r="M357" s="1">
+        <v>322</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
@@ -14201,8 +14429,8 @@
       <c r="L358" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M358" s="1">
-        <v>322</v>
+      <c r="M358" s="3">
+        <v>1.02740818735841E-2</v>
       </c>
       <c r="N358" s="1">
         <v>322</v>
@@ -14242,9 +14470,7 @@
       <c r="L359" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M359" s="3">
-        <v>1.02740818735841E-2</v>
-      </c>
+      <c r="M359" s="5"/>
       <c r="N359" s="3">
         <v>1.02740818735841E-2</v>
       </c>
@@ -14287,6 +14513,7 @@
       <c r="L360" t="s">
         <v>26</v>
       </c>
+      <c r="M360" s="5"/>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -14319,6 +14546,7 @@
       <c r="L361" t="s">
         <v>27</v>
       </c>
+      <c r="M361" s="5"/>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -14350,6 +14578,9 @@
       </c>
       <c r="L362" t="s">
         <v>28</v>
+      </c>
+      <c r="M362" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
@@ -14385,8 +14616,8 @@
       <c r="L363" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M363" s="1">
-        <v>54</v>
+      <c r="M363" s="3">
+        <v>1.722982674452E-3</v>
       </c>
       <c r="N363" s="1">
         <v>54</v>
@@ -14426,9 +14657,7 @@
       <c r="L364" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M364" s="3">
-        <v>1.722982674452E-3</v>
-      </c>
+      <c r="M364" s="5"/>
       <c r="N364" s="3">
         <v>1.722982674452E-3</v>
       </c>
@@ -14471,6 +14700,7 @@
       <c r="L365" t="s">
         <v>26</v>
       </c>
+      <c r="M365" s="5"/>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
@@ -14503,6 +14733,7 @@
       <c r="L366" t="s">
         <v>27</v>
       </c>
+      <c r="M366" s="5"/>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
@@ -14534,6 +14765,9 @@
       </c>
       <c r="L367" t="s">
         <v>28</v>
+      </c>
+      <c r="M367" s="1">
+        <v>2784</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
@@ -14569,8 +14803,8 @@
       <c r="L368" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M368" s="1">
-        <v>2784</v>
+      <c r="M368" s="3">
+        <v>5.9858095033326203E-2</v>
       </c>
       <c r="N368" s="1"/>
       <c r="O368" s="1">
@@ -14610,9 +14844,7 @@
       <c r="L369" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M369" s="3">
-        <v>5.9858095033326203E-2</v>
-      </c>
+      <c r="M369" s="5"/>
       <c r="N369" s="3"/>
       <c r="O369" s="3">
         <v>5.9858095033326203E-2</v>
@@ -14655,6 +14887,7 @@
       <c r="L370" t="s">
         <v>26</v>
       </c>
+      <c r="M370" s="5"/>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
@@ -14687,6 +14920,7 @@
       <c r="L371" t="s">
         <v>27</v>
       </c>
+      <c r="M371" s="5"/>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
@@ -14718,6 +14952,9 @@
       </c>
       <c r="L372" t="s">
         <v>28</v>
+      </c>
+      <c r="M372" s="1">
+        <v>129</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
@@ -14753,8 +14990,8 @@
       <c r="L373" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M373" s="1">
-        <v>129</v>
+      <c r="M373" s="3">
+        <v>2.7735970758976602E-3</v>
       </c>
       <c r="N373" s="1"/>
       <c r="O373" s="1">
@@ -14794,9 +15031,7 @@
       <c r="L374" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M374" s="3">
-        <v>2.7735970758976602E-3</v>
-      </c>
+      <c r="M374" s="5"/>
       <c r="N374" s="3"/>
       <c r="O374" s="3">
         <v>2.7735970758976602E-3</v>
@@ -14839,6 +15074,7 @@
       <c r="L375" t="s">
         <v>26</v>
       </c>
+      <c r="M375" s="5"/>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
@@ -14871,6 +15107,7 @@
       <c r="L376" t="s">
         <v>27</v>
       </c>
+      <c r="M376" s="5"/>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
@@ -14902,6 +15139,9 @@
       </c>
       <c r="L377" t="s">
         <v>28</v>
+      </c>
+      <c r="M377" s="1">
+        <v>1515</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
@@ -14937,8 +15177,8 @@
       <c r="L378" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M378" s="1">
-        <v>1515</v>
+      <c r="M378" s="3">
+        <v>3.2573640077402703E-2</v>
       </c>
       <c r="N378" s="1">
         <v>764</v>
@@ -14980,9 +15220,7 @@
       <c r="L379" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M379" s="3">
-        <v>3.2573640077402703E-2</v>
-      </c>
+      <c r="M379" s="5"/>
       <c r="N379" s="3">
         <v>2.4377014134839298E-2</v>
       </c>
@@ -15027,6 +15265,7 @@
       <c r="L380" t="s">
         <v>26</v>
       </c>
+      <c r="M380" s="5"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -15059,6 +15298,7 @@
       <c r="L381" t="s">
         <v>27</v>
       </c>
+      <c r="M381" s="5"/>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -15090,6 +15330,9 @@
       </c>
       <c r="L382" t="s">
         <v>28</v>
+      </c>
+      <c r="M382" s="1">
+        <v>128</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
@@ -15125,8 +15368,8 @@
       <c r="L383" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M383" s="1">
-        <v>128</v>
+      <c r="M383" s="3">
+        <v>2.7520963233713201E-3</v>
       </c>
       <c r="N383" s="1">
         <v>42</v>
@@ -15168,9 +15411,7 @@
       <c r="L384" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M384" s="3">
-        <v>2.7520963233713201E-3</v>
-      </c>
+      <c r="M384" s="5"/>
       <c r="N384" s="3">
         <v>1.3400976356848901E-3</v>
       </c>
@@ -15215,6 +15456,7 @@
       <c r="L385" t="s">
         <v>26</v>
       </c>
+      <c r="M385" s="5"/>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -15253,6 +15495,7 @@
       <c r="L386" t="s">
         <v>27</v>
       </c>
+      <c r="M386" s="5"/>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
@@ -15284,6 +15527,9 @@
       </c>
       <c r="L387" t="s">
         <v>28</v>
+      </c>
+      <c r="M387" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
@@ -15319,8 +15565,8 @@
       <c r="L388" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M388" s="1">
-        <v>64</v>
+      <c r="M388" s="3">
+        <v>1.37604816168566E-3</v>
       </c>
       <c r="N388" s="1"/>
       <c r="O388" s="1">
@@ -15360,9 +15606,7 @@
       <c r="L389" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M389" s="3">
-        <v>1.37604816168566E-3</v>
-      </c>
+      <c r="M389" s="5"/>
       <c r="N389" s="3"/>
       <c r="O389" s="3">
         <v>1.37604816168566E-3</v>
@@ -15405,6 +15649,7 @@
       <c r="L390" t="s">
         <v>26</v>
       </c>
+      <c r="M390" s="5"/>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
@@ -15437,6 +15682,7 @@
       <c r="L391" t="s">
         <v>27</v>
       </c>
+      <c r="M391" s="5"/>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
@@ -15468,6 +15714,9 @@
       </c>
       <c r="L392" t="s">
         <v>28</v>
+      </c>
+      <c r="M392" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
@@ -15503,8 +15752,8 @@
       <c r="L393" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M393" s="1">
-        <v>32</v>
+      <c r="M393" s="3">
+        <v>6.8802408084282904E-4</v>
       </c>
       <c r="N393" s="1"/>
       <c r="O393" s="1">
@@ -15544,9 +15793,7 @@
       <c r="L394" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M394" s="3">
-        <v>6.8802408084282904E-4</v>
-      </c>
+      <c r="M394" s="5"/>
       <c r="N394" s="3"/>
       <c r="O394" s="3">
         <v>6.8802408084282904E-4</v>
@@ -15589,6 +15836,7 @@
       <c r="L395" t="s">
         <v>26</v>
       </c>
+      <c r="M395" s="5"/>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
@@ -15627,6 +15875,7 @@
       <c r="L396" t="s">
         <v>27</v>
       </c>
+      <c r="M396" s="5"/>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -15658,6 +15907,9 @@
       </c>
       <c r="L397" t="s">
         <v>28</v>
+      </c>
+      <c r="M397" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
@@ -15693,8 +15945,8 @@
       <c r="L398" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M398" s="1">
-        <v>6</v>
+      <c r="M398" s="3">
+        <v>1.2900451515803101E-4</v>
       </c>
       <c r="N398" s="1"/>
       <c r="O398" s="1">
@@ -15734,9 +15986,7 @@
       <c r="L399" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M399" s="3">
-        <v>1.2900451515803101E-4</v>
-      </c>
+      <c r="M399" s="5"/>
       <c r="N399" s="3"/>
       <c r="O399" s="3">
         <v>1.2900451515803101E-4</v>
@@ -15779,6 +16029,7 @@
       <c r="L400" t="s">
         <v>26</v>
       </c>
+      <c r="M400" s="5"/>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
@@ -15811,6 +16062,7 @@
       <c r="L401" t="s">
         <v>27</v>
       </c>
+      <c r="M401" s="5"/>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
@@ -15842,6 +16094,9 @@
       </c>
       <c r="L402" t="s">
         <v>28</v>
+      </c>
+      <c r="M402" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.2">
@@ -15877,8 +16132,8 @@
       <c r="L403" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M403" s="1">
-        <v>8</v>
+      <c r="M403" s="3">
+        <v>1.7200602021070699E-4</v>
       </c>
       <c r="N403" s="1"/>
       <c r="O403" s="1">
@@ -15918,9 +16173,7 @@
       <c r="L404" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M404" s="3">
-        <v>1.7200602021070699E-4</v>
-      </c>
+      <c r="M404" s="5"/>
       <c r="N404" s="3"/>
       <c r="O404" s="3">
         <v>1.7200602021070699E-4</v>
@@ -15963,6 +16216,7 @@
       <c r="L405" t="s">
         <v>26</v>
       </c>
+      <c r="M405" s="5"/>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
@@ -15995,6 +16249,7 @@
       <c r="L406" t="s">
         <v>27</v>
       </c>
+      <c r="M406" s="5"/>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
@@ -16026,6 +16281,9 @@
       </c>
       <c r="L407" t="s">
         <v>28</v>
+      </c>
+      <c r="M407" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.2">
@@ -16061,8 +16319,8 @@
       <c r="L408" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M408" s="1">
-        <v>35</v>
+      <c r="M408" s="3">
+        <v>7.5252633842184502E-4</v>
       </c>
       <c r="N408" s="1"/>
       <c r="O408" s="1">
@@ -16102,9 +16360,7 @@
       <c r="L409" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M409" s="3">
-        <v>7.5252633842184502E-4</v>
-      </c>
+      <c r="M409" s="5"/>
       <c r="N409" s="3"/>
       <c r="O409" s="3">
         <v>7.5252633842184502E-4</v>
@@ -16147,6 +16403,7 @@
       <c r="L410" t="s">
         <v>26</v>
       </c>
+      <c r="M410" s="5"/>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
@@ -16179,6 +16436,7 @@
       <c r="L411" t="s">
         <v>27</v>
       </c>
+      <c r="M411" s="5"/>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
@@ -16210,6 +16468,9 @@
       </c>
       <c r="L412" t="s">
         <v>28</v>
+      </c>
+      <c r="M412" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
@@ -16245,8 +16506,8 @@
       <c r="L413" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M413" s="1">
-        <v>1</v>
+      <c r="M413" s="3">
+        <v>2.1500752526338401E-5</v>
       </c>
       <c r="N413" s="1"/>
       <c r="O413" s="1">
@@ -16286,9 +16547,7 @@
       <c r="L414" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M414" s="3">
-        <v>2.1500752526338401E-5</v>
-      </c>
+      <c r="M414" s="5"/>
       <c r="N414" s="3"/>
       <c r="O414" s="3">
         <v>2.1500752526338401E-5</v>
@@ -16331,6 +16590,7 @@
       <c r="L415" t="s">
         <v>26</v>
       </c>
+      <c r="M415" s="5"/>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
@@ -16363,6 +16623,7 @@
       <c r="L416" t="s">
         <v>27</v>
       </c>
+      <c r="M416" s="5"/>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
@@ -16394,6 +16655,9 @@
       </c>
       <c r="L417" t="s">
         <v>28</v>
+      </c>
+      <c r="M417" s="1">
+        <v>340</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.2">
@@ -16429,8 +16693,8 @@
       <c r="L418" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M418" s="1">
-        <v>340</v>
+      <c r="M418" s="3">
+        <v>7.3102558589550597E-3</v>
       </c>
       <c r="N418" s="1"/>
       <c r="O418" s="1">
@@ -16470,9 +16734,7 @@
       <c r="L419" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M419" s="3">
-        <v>7.3102558589550597E-3</v>
-      </c>
+      <c r="M419" s="5"/>
       <c r="N419" s="3"/>
       <c r="O419" s="3">
         <v>7.3102558589550597E-3</v>
@@ -16515,6 +16777,7 @@
       <c r="L420" t="s">
         <v>26</v>
       </c>
+      <c r="M420" s="5"/>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
@@ -16553,6 +16816,7 @@
       <c r="L421" t="s">
         <v>27</v>
       </c>
+      <c r="M421" s="5"/>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
@@ -16584,6 +16848,9 @@
       </c>
       <c r="L422" t="s">
         <v>28</v>
+      </c>
+      <c r="M422" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.2">
@@ -16619,8 +16886,8 @@
       <c r="L423" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M423" s="1">
-        <v>11</v>
+      <c r="M423" s="3">
+        <v>2.3650827778972299E-4</v>
       </c>
       <c r="N423" s="1"/>
       <c r="O423" s="1">
@@ -16660,9 +16927,7 @@
       <c r="L424" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M424" s="3">
-        <v>2.3650827778972299E-4</v>
-      </c>
+      <c r="M424" s="5"/>
       <c r="N424" s="3"/>
       <c r="O424" s="3">
         <v>2.3650827778972299E-4</v>
@@ -16705,6 +16970,7 @@
       <c r="L425" t="s">
         <v>26</v>
       </c>
+      <c r="M425" s="5"/>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
@@ -16737,6 +17003,7 @@
       <c r="L426" t="s">
         <v>27</v>
       </c>
+      <c r="M426" s="5"/>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
@@ -16768,6 +17035,9 @@
       </c>
       <c r="L427" t="s">
         <v>28</v>
+      </c>
+      <c r="M427" s="1">
+        <v>893</v>
       </c>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.2">
@@ -16803,8 +17073,8 @@
       <c r="L428" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M428" s="1">
-        <v>893</v>
+      <c r="M428" s="3">
+        <v>2.4759899173606499E-2</v>
       </c>
       <c r="N428" s="1">
         <v>776</v>
@@ -16846,9 +17116,7 @@
       <c r="L429" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M429" s="3">
-        <v>2.4759899173606499E-2</v>
-      </c>
+      <c r="M429" s="5"/>
       <c r="N429" s="3">
         <v>2.4759899173606499E-2</v>
       </c>
@@ -16893,6 +17161,7 @@
       <c r="L430" t="s">
         <v>26</v>
       </c>
+      <c r="M430" s="5"/>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
@@ -16925,6 +17194,7 @@
       <c r="L431" t="s">
         <v>27</v>
       </c>
+      <c r="M431" s="5"/>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
@@ -16956,6 +17226,9 @@
       </c>
       <c r="L432" t="s">
         <v>28</v>
+      </c>
+      <c r="M432" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
@@ -16991,8 +17264,8 @@
       <c r="L433" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M433" s="1">
-        <v>77</v>
+      <c r="M433" s="3">
+        <v>2.4568456654222898E-3</v>
       </c>
       <c r="N433" s="1">
         <v>77</v>
@@ -17032,9 +17305,7 @@
       <c r="L434" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M434" s="3">
-        <v>2.4568456654222898E-3</v>
-      </c>
+      <c r="M434" s="5"/>
       <c r="N434" s="3">
         <v>2.4568456654222898E-3</v>
       </c>
@@ -17077,6 +17348,7 @@
       <c r="L435" t="s">
         <v>26</v>
       </c>
+      <c r="M435" s="5"/>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
@@ -17109,6 +17381,7 @@
       <c r="L436" t="s">
         <v>27</v>
       </c>
+      <c r="M436" s="5"/>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
@@ -17140,6 +17413,9 @@
       </c>
       <c r="L437" t="s">
         <v>28</v>
+      </c>
+      <c r="M437" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
@@ -17175,8 +17451,8 @@
       <c r="L438" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M438" s="1">
-        <v>3</v>
+      <c r="M438" s="3">
+        <v>6.45022575790153E-5</v>
       </c>
       <c r="N438" s="1"/>
       <c r="O438" s="1">
@@ -17216,9 +17492,7 @@
       <c r="L439" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M439" s="3">
-        <v>6.45022575790153E-5</v>
-      </c>
+      <c r="M439" s="5"/>
       <c r="N439" s="3"/>
       <c r="O439" s="3">
         <v>6.45022575790153E-5</v>
@@ -17261,6 +17535,7 @@
       <c r="L440" t="s">
         <v>26</v>
       </c>
+      <c r="M440" s="5"/>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
@@ -17293,6 +17568,7 @@
       <c r="L441" t="s">
         <v>27</v>
       </c>
+      <c r="M441" s="5"/>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
@@ -17324,6 +17600,9 @@
       </c>
       <c r="L442" t="s">
         <v>28</v>
+      </c>
+      <c r="M442" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
@@ -17359,8 +17638,8 @@
       <c r="L443" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M443" s="1">
-        <v>62</v>
+      <c r="M443" s="3">
+        <v>1.33304665663298E-3</v>
       </c>
       <c r="N443" s="1"/>
       <c r="O443" s="1">
@@ -17400,9 +17679,7 @@
       <c r="L444" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M444" s="3">
-        <v>1.33304665663298E-3</v>
-      </c>
+      <c r="M444" s="5"/>
       <c r="N444" s="3"/>
       <c r="O444" s="3">
         <v>1.33304665663298E-3</v>
@@ -17445,6 +17722,7 @@
       <c r="L445" t="s">
         <v>26</v>
       </c>
+      <c r="M445" s="5"/>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
@@ -17477,6 +17755,7 @@
       <c r="L446" t="s">
         <v>27</v>
       </c>
+      <c r="M446" s="5"/>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
@@ -17508,6 +17787,9 @@
       </c>
       <c r="L447" t="s">
         <v>28</v>
+      </c>
+      <c r="M447" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.2">
@@ -17543,8 +17825,8 @@
       <c r="L448" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M448" s="1">
-        <v>44</v>
+      <c r="M448" s="3">
+        <v>9.46033111158891E-4</v>
       </c>
       <c r="N448" s="1"/>
       <c r="O448" s="1">
@@ -17584,9 +17866,7 @@
       <c r="L449" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M449" s="3">
-        <v>9.46033111158891E-4</v>
-      </c>
+      <c r="M449" s="5"/>
       <c r="N449" s="3"/>
       <c r="O449" s="3">
         <v>9.46033111158891E-4</v>
@@ -17629,6 +17909,7 @@
       <c r="L450" t="s">
         <v>26</v>
       </c>
+      <c r="M450" s="5"/>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -17661,6 +17942,7 @@
       <c r="L451" t="s">
         <v>27</v>
       </c>
+      <c r="M451" s="5"/>
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -17692,6 +17974,9 @@
       </c>
       <c r="L452" t="s">
         <v>28</v>
+      </c>
+      <c r="M452" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
@@ -17727,8 +18012,8 @@
       <c r="L453" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M453" s="1">
-        <v>55</v>
+      <c r="M453" s="3">
+        <v>1.1825413889486099E-3</v>
       </c>
       <c r="N453" s="1"/>
       <c r="O453" s="1">
@@ -17768,9 +18053,7 @@
       <c r="L454" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M454" s="3">
-        <v>1.1825413889486099E-3</v>
-      </c>
+      <c r="M454" s="5"/>
       <c r="N454" s="3"/>
       <c r="O454" s="3">
         <v>1.1825413889486099E-3</v>
@@ -17813,6 +18096,7 @@
       <c r="L455" t="s">
         <v>26</v>
       </c>
+      <c r="M455" s="5"/>
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -17845,6 +18129,7 @@
       <c r="L456" t="s">
         <v>27</v>
       </c>
+      <c r="M456" s="5"/>
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
@@ -17876,6 +18161,9 @@
       </c>
       <c r="L457" t="s">
         <v>28</v>
+      </c>
+      <c r="M457" s="1">
+        <v>1479</v>
       </c>
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.2">
@@ -17911,8 +18199,8 @@
       <c r="L458" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M458" s="1">
-        <v>1479</v>
+      <c r="M458" s="3">
+        <v>3.1799612986454499E-2</v>
       </c>
       <c r="N458" s="1">
         <v>182</v>
@@ -17954,9 +18242,7 @@
       <c r="L459" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M459" s="3">
-        <v>3.1799612986454499E-2</v>
-      </c>
+      <c r="M459" s="5"/>
       <c r="N459" s="3">
         <v>5.8070897546345004E-3</v>
       </c>
@@ -18001,6 +18287,7 @@
       <c r="L460" t="s">
         <v>26</v>
       </c>
+      <c r="M460" s="5"/>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -18033,6 +18320,7 @@
       <c r="L461" t="s">
         <v>27</v>
       </c>
+      <c r="M461" s="5"/>
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -18064,6 +18352,9 @@
       </c>
       <c r="L462" t="s">
         <v>28</v>
+      </c>
+      <c r="M462" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.2">
@@ -18099,8 +18390,8 @@
       <c r="L463" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M463" s="1">
-        <v>14</v>
+      <c r="M463" s="3">
+        <v>3.01010535368738E-4</v>
       </c>
       <c r="N463" s="1"/>
       <c r="O463" s="1">
@@ -18140,9 +18431,7 @@
       <c r="L464" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M464" s="3">
-        <v>3.01010535368738E-4</v>
-      </c>
+      <c r="M464" s="5"/>
       <c r="N464" s="3"/>
       <c r="O464" s="3">
         <v>3.01010535368738E-4</v>
@@ -18185,6 +18474,7 @@
       <c r="L465" t="s">
         <v>26</v>
       </c>
+      <c r="M465" s="5"/>
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
@@ -18217,6 +18507,7 @@
       <c r="L466" t="s">
         <v>27</v>
       </c>
+      <c r="M466" s="5"/>
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -18248,6 +18539,9 @@
       </c>
       <c r="L467" t="s">
         <v>28</v>
+      </c>
+      <c r="M467" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
@@ -18283,8 +18577,8 @@
       <c r="L468" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M468" s="1">
-        <v>22</v>
+      <c r="M468" s="3">
+        <v>4.7301655557944501E-4</v>
       </c>
       <c r="N468" s="1">
         <v>1</v>
@@ -18326,9 +18620,7 @@
       <c r="L469" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M469" s="3">
-        <v>4.7301655557944501E-4</v>
-      </c>
+      <c r="M469" s="5"/>
       <c r="N469" s="3">
         <v>3.1907086563925798E-5</v>
       </c>
@@ -18373,6 +18665,7 @@
       <c r="L470" t="s">
         <v>26</v>
       </c>
+      <c r="M470" s="5"/>
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
@@ -18405,6 +18698,7 @@
       <c r="L471" t="s">
         <v>27</v>
       </c>
+      <c r="M471" s="5"/>
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
@@ -18436,6 +18730,9 @@
       </c>
       <c r="L472" t="s">
         <v>28</v>
+      </c>
+      <c r="M472" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.2">
@@ -18471,8 +18768,8 @@
       <c r="L473" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M473" s="1">
-        <v>76</v>
+      <c r="M473" s="3">
+        <v>1.63405719200172E-3</v>
       </c>
       <c r="N473" s="1"/>
       <c r="O473" s="1">
@@ -18512,9 +18809,7 @@
       <c r="L474" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M474" s="3">
-        <v>1.63405719200172E-3</v>
-      </c>
+      <c r="M474" s="5"/>
       <c r="N474" s="3"/>
       <c r="O474" s="3">
         <v>1.63405719200172E-3</v>
@@ -18557,6 +18852,7 @@
       <c r="L475" t="s">
         <v>26</v>
       </c>
+      <c r="M475" s="5"/>
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
@@ -18589,6 +18885,7 @@
       <c r="L476" t="s">
         <v>27</v>
       </c>
+      <c r="M476" s="5"/>
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
@@ -18620,6 +18917,9 @@
       </c>
       <c r="L477" t="s">
         <v>28</v>
+      </c>
+      <c r="M477" s="1">
+        <v>709</v>
       </c>
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.2">
@@ -18655,8 +18955,8 @@
       <c r="L478" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M478" s="1">
-        <v>709</v>
+      <c r="M478" s="3">
+        <v>2.26221243738234E-2</v>
       </c>
       <c r="N478" s="1">
         <v>709</v>
@@ -18696,9 +18996,7 @@
       <c r="L479" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M479" s="3">
-        <v>2.26221243738234E-2</v>
-      </c>
+      <c r="M479" s="5"/>
       <c r="N479" s="3">
         <v>2.26221243738234E-2</v>
       </c>
@@ -18741,6 +19039,7 @@
       <c r="L480" t="s">
         <v>26</v>
       </c>
+      <c r="M480" s="5"/>
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -18773,6 +19072,7 @@
       <c r="L481" t="s">
         <v>27</v>
       </c>
+      <c r="M481" s="5"/>
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -18804,6 +19104,9 @@
       </c>
       <c r="L482" t="s">
         <v>28</v>
+      </c>
+      <c r="M482" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.2">
@@ -18839,8 +19142,8 @@
       <c r="L483" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M483" s="1">
-        <v>44</v>
+      <c r="M483" s="3">
+        <v>9.46033111158891E-4</v>
       </c>
       <c r="N483" s="1"/>
       <c r="O483" s="1">
@@ -18880,9 +19183,7 @@
       <c r="L484" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M484" s="3">
-        <v>9.46033111158891E-4</v>
-      </c>
+      <c r="M484" s="5"/>
       <c r="N484" s="3"/>
       <c r="O484" s="3">
         <v>9.46033111158891E-4</v>
@@ -18925,6 +19226,7 @@
       <c r="L485" t="s">
         <v>26</v>
       </c>
+      <c r="M485" s="5"/>
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
@@ -18957,6 +19259,7 @@
       <c r="L486" t="s">
         <v>27</v>
       </c>
+      <c r="M486" s="5"/>
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
@@ -18988,6 +19291,9 @@
       </c>
       <c r="L487" t="s">
         <v>28</v>
+      </c>
+      <c r="M487" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.2">
@@ -19023,8 +19329,8 @@
       <c r="L488" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M488" s="1">
-        <v>73</v>
+      <c r="M488" s="3">
+        <v>1.5695549344226999E-3</v>
       </c>
       <c r="N488" s="1"/>
       <c r="O488" s="1">
@@ -19064,9 +19370,7 @@
       <c r="L489" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M489" s="3">
-        <v>1.5695549344226999E-3</v>
-      </c>
+      <c r="M489" s="5"/>
       <c r="N489" s="3"/>
       <c r="O489" s="3">
         <v>1.5695549344226999E-3</v>
@@ -19109,6 +19413,7 @@
       <c r="L490" t="s">
         <v>26</v>
       </c>
+      <c r="M490" s="5"/>
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
@@ -19141,6 +19446,7 @@
       <c r="L491" t="s">
         <v>27</v>
       </c>
+      <c r="M491" s="5"/>
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
@@ -19172,6 +19478,9 @@
       </c>
       <c r="L492" t="s">
         <v>28</v>
+      </c>
+      <c r="M492" s="1">
+        <v>496</v>
       </c>
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.2">
@@ -19207,8 +19516,8 @@
       <c r="L493" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M493" s="1">
-        <v>496</v>
+      <c r="M493" s="3">
+        <v>1.0664373253063899E-2</v>
       </c>
       <c r="N493" s="1"/>
       <c r="O493" s="1">
@@ -19248,9 +19557,7 @@
       <c r="L494" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M494" s="3">
-        <v>1.0664373253063899E-2</v>
-      </c>
+      <c r="M494" s="5"/>
       <c r="N494" s="3"/>
       <c r="O494" s="3">
         <v>1.0664373253063899E-2</v>
@@ -19293,6 +19600,7 @@
       <c r="L495" t="s">
         <v>26</v>
       </c>
+      <c r="M495" s="5"/>
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -19325,6 +19633,7 @@
       <c r="L496" t="s">
         <v>27</v>
       </c>
+      <c r="M496" s="5"/>
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -19356,6 +19665,9 @@
       </c>
       <c r="L497" t="s">
         <v>28</v>
+      </c>
+      <c r="M497" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:15" x14ac:dyDescent="0.2">
@@ -19391,8 +19703,8 @@
       <c r="L498" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M498" s="1">
-        <v>3</v>
+      <c r="M498" s="3">
+        <v>6.45022575790153E-5</v>
       </c>
       <c r="N498" s="1"/>
       <c r="O498" s="1">
@@ -19432,9 +19744,7 @@
       <c r="L499" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M499" s="3">
-        <v>6.45022575790153E-5</v>
-      </c>
+      <c r="M499" s="5"/>
       <c r="N499" s="3"/>
       <c r="O499" s="3">
         <v>6.45022575790153E-5</v>
@@ -19477,6 +19787,7 @@
       <c r="L500" t="s">
         <v>26</v>
       </c>
+      <c r="M500" s="5"/>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
@@ -19509,6 +19820,7 @@
       <c r="L501" t="s">
         <v>27</v>
       </c>
+      <c r="M501" s="5"/>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
@@ -19540,6 +19852,9 @@
       </c>
       <c r="L502" t="s">
         <v>28</v>
+      </c>
+      <c r="M502" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.2">
@@ -19575,8 +19890,8 @@
       <c r="L503" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M503" s="1">
-        <v>35</v>
+      <c r="M503" s="3">
+        <v>7.5252633842184502E-4</v>
       </c>
       <c r="N503" s="1"/>
       <c r="O503" s="1">
@@ -19616,9 +19931,7 @@
       <c r="L504" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M504" s="3">
-        <v>7.5252633842184502E-4</v>
-      </c>
+      <c r="M504" s="5"/>
       <c r="N504" s="3"/>
       <c r="O504" s="3">
         <v>7.5252633842184502E-4</v>
@@ -19661,6 +19974,7 @@
       <c r="L505" t="s">
         <v>26</v>
       </c>
+      <c r="M505" s="5"/>
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -19693,6 +20007,7 @@
       <c r="L506" t="s">
         <v>27</v>
       </c>
+      <c r="M506" s="5"/>
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
@@ -19724,6 +20039,9 @@
       </c>
       <c r="L507" t="s">
         <v>28</v>
+      </c>
+      <c r="M507" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
@@ -19759,8 +20077,8 @@
       <c r="L508" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M508" s="1">
-        <v>68</v>
+      <c r="M508" s="3">
+        <v>1.46205117179101E-3</v>
       </c>
       <c r="N508" s="1"/>
       <c r="O508" s="1">
@@ -19800,9 +20118,7 @@
       <c r="L509" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M509" s="3">
-        <v>1.46205117179101E-3</v>
-      </c>
+      <c r="M509" s="5"/>
       <c r="N509" s="3"/>
       <c r="O509" s="3">
         <v>1.46205117179101E-3</v>
@@ -19845,6 +20161,7 @@
       <c r="L510" t="s">
         <v>26</v>
       </c>
+      <c r="M510" s="5"/>
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -19877,6 +20194,7 @@
       <c r="L511" t="s">
         <v>27</v>
       </c>
+      <c r="M511" s="5"/>
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
@@ -19908,6 +20226,9 @@
       </c>
       <c r="L512" t="s">
         <v>28</v>
+      </c>
+      <c r="M512" s="1">
+        <v>1890</v>
       </c>
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.2">
@@ -19943,8 +20264,8 @@
       <c r="L513" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M513" s="1">
-        <v>1890</v>
+      <c r="M513" s="3">
+        <v>4.06364222747796E-2</v>
       </c>
       <c r="N513" s="1">
         <v>52</v>
@@ -19986,9 +20307,7 @@
       <c r="L514" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M514" s="3">
-        <v>4.06364222747796E-2</v>
-      </c>
+      <c r="M514" s="5"/>
       <c r="N514" s="3">
         <v>1.6591685013241399E-3</v>
       </c>
@@ -20033,6 +20352,7 @@
       <c r="L515" t="s">
         <v>26</v>
       </c>
+      <c r="M515" s="5"/>
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
@@ -20065,6 +20385,7 @@
       <c r="L516" t="s">
         <v>27</v>
       </c>
+      <c r="M516" s="5"/>
     </row>
     <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
@@ -20096,6 +20417,9 @@
       </c>
       <c r="L517" t="s">
         <v>28</v>
+      </c>
+      <c r="M517" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.2">
@@ -20131,8 +20455,8 @@
       <c r="L518" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M518" s="1">
-        <v>3</v>
+      <c r="M518" s="3">
+        <v>6.45022575790153E-5</v>
       </c>
       <c r="N518" s="1"/>
       <c r="O518" s="1">
@@ -20172,9 +20496,7 @@
       <c r="L519" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M519" s="3">
-        <v>6.45022575790153E-5</v>
-      </c>
+      <c r="M519" s="5"/>
       <c r="N519" s="3"/>
       <c r="O519" s="3">
         <v>6.45022575790153E-5</v>
@@ -20217,6 +20539,7 @@
       <c r="L520" t="s">
         <v>26</v>
       </c>
+      <c r="M520" s="5"/>
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -20249,6 +20572,7 @@
       <c r="L521" t="s">
         <v>27</v>
       </c>
+      <c r="M521" s="5"/>
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
@@ -20280,6 +20604,9 @@
       </c>
       <c r="L522" t="s">
         <v>28</v>
+      </c>
+      <c r="M522" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.2">
@@ -20315,8 +20642,8 @@
       <c r="L523" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M523" s="1">
-        <v>120</v>
+      <c r="M523" s="3">
+        <v>3.8288503876711E-3</v>
       </c>
       <c r="N523" s="1">
         <v>120</v>
@@ -20356,9 +20683,7 @@
       <c r="L524" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M524" s="3">
-        <v>3.8288503876711E-3</v>
-      </c>
+      <c r="M524" s="5"/>
       <c r="N524" s="3">
         <v>3.8288503876711E-3</v>
       </c>
@@ -20401,6 +20726,7 @@
       <c r="L525" t="s">
         <v>26</v>
       </c>
+      <c r="M525" s="5"/>
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -20433,6 +20759,7 @@
       <c r="L526" t="s">
         <v>27</v>
       </c>
+      <c r="M526" s="5"/>
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -20464,6 +20791,9 @@
       </c>
       <c r="L527" t="s">
         <v>28</v>
+      </c>
+      <c r="M527" s="1">
+        <v>560</v>
       </c>
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.2">
@@ -20499,8 +20829,8 @@
       <c r="L528" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M528" s="1">
-        <v>560</v>
+      <c r="M528" s="3">
+        <v>1.7867968475798499E-2</v>
       </c>
       <c r="N528" s="1">
         <v>560</v>
@@ -20542,9 +20872,7 @@
       <c r="L529" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M529" s="3">
-        <v>1.7867968475798499E-2</v>
-      </c>
+      <c r="M529" s="5"/>
       <c r="N529" s="3">
         <v>1.7867968475798499E-2</v>
       </c>
@@ -20589,6 +20917,7 @@
       <c r="L530" t="s">
         <v>26</v>
       </c>
+      <c r="M530" s="5"/>
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
@@ -20621,6 +20950,7 @@
       <c r="L531" t="s">
         <v>27</v>
       </c>
+      <c r="M531" s="5"/>
     </row>
     <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
@@ -20652,6 +20982,9 @@
       </c>
       <c r="L532" t="s">
         <v>28</v>
+      </c>
+      <c r="M532" s="1">
+        <v>811</v>
       </c>
     </row>
     <row r="533" spans="1:15" x14ac:dyDescent="0.2">
@@ -20687,8 +21020,8 @@
       <c r="L533" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M533" s="1">
-        <v>811</v>
+      <c r="M533" s="3">
+        <v>1.7437110298860501E-2</v>
       </c>
       <c r="N533" s="1">
         <v>17</v>
@@ -20730,9 +21063,7 @@
       <c r="L534" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M534" s="3">
-        <v>1.7437110298860501E-2</v>
-      </c>
+      <c r="M534" s="5"/>
       <c r="N534" s="3">
         <v>5.4242047158673901E-4</v>
       </c>
@@ -20777,6 +21108,7 @@
       <c r="L535" t="s">
         <v>26</v>
       </c>
+      <c r="M535" s="5"/>
     </row>
     <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
@@ -20809,6 +21141,7 @@
       <c r="L536" t="s">
         <v>27</v>
       </c>
+      <c r="M536" s="5"/>
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
@@ -20840,6 +21173,9 @@
       </c>
       <c r="L537" t="s">
         <v>28</v>
+      </c>
+      <c r="M537" s="1">
+        <v>2466</v>
       </c>
     </row>
     <row r="538" spans="1:15" x14ac:dyDescent="0.2">
@@ -20875,8 +21211,8 @@
       <c r="L538" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M538" s="1">
-        <v>2466</v>
+      <c r="M538" s="3">
+        <v>5.3020855729950599E-2</v>
       </c>
       <c r="N538" s="1">
         <v>695</v>
@@ -20918,9 +21254,7 @@
       <c r="L539" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M539" s="3">
-        <v>5.3020855729950599E-2</v>
-      </c>
+      <c r="M539" s="5"/>
       <c r="N539" s="3">
         <v>2.21754251619285E-2</v>
       </c>
@@ -20965,6 +21299,7 @@
       <c r="L540" t="s">
         <v>26</v>
       </c>
+      <c r="M540" s="5"/>
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
@@ -20997,6 +21332,7 @@
       <c r="L541" t="s">
         <v>27</v>
       </c>
+      <c r="M541" s="5"/>
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
@@ -21028,6 +21364,9 @@
       </c>
       <c r="L542" t="s">
         <v>28</v>
+      </c>
+      <c r="M542" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.2">
@@ -21063,8 +21402,8 @@
       <c r="L543" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M543" s="1">
-        <v>7</v>
+      <c r="M543" s="3">
+        <v>1.50505267684369E-4</v>
       </c>
       <c r="N543" s="1"/>
       <c r="O543" s="1">
@@ -21104,9 +21443,7 @@
       <c r="L544" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M544" s="3">
-        <v>1.50505267684369E-4</v>
-      </c>
+      <c r="M544" s="5"/>
       <c r="N544" s="3"/>
       <c r="O544" s="3">
         <v>1.50505267684369E-4</v>
@@ -21149,6 +21486,7 @@
       <c r="L545" t="s">
         <v>26</v>
       </c>
+      <c r="M545" s="5"/>
     </row>
     <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
@@ -21181,6 +21519,7 @@
       <c r="L546" t="s">
         <v>27</v>
       </c>
+      <c r="M546" s="5"/>
     </row>
     <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
@@ -21212,6 +21551,9 @@
       </c>
       <c r="L547" t="s">
         <v>28</v>
+      </c>
+      <c r="M547" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="548" spans="1:15" x14ac:dyDescent="0.2">
@@ -21247,8 +21589,8 @@
       <c r="L548" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M548" s="1">
-        <v>15</v>
+      <c r="M548" s="3">
+        <v>3.2251128789507599E-4</v>
       </c>
       <c r="N548" s="1">
         <v>4</v>
@@ -21290,9 +21632,7 @@
       <c r="L549" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M549" s="3">
-        <v>3.2251128789507599E-4</v>
-      </c>
+      <c r="M549" s="5"/>
       <c r="N549" s="3">
         <v>1.27628346255703E-4</v>
       </c>
@@ -21337,6 +21677,7 @@
       <c r="L550" t="s">
         <v>26</v>
       </c>
+      <c r="M550" s="5"/>
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
@@ -21369,6 +21710,7 @@
       <c r="L551" t="s">
         <v>27</v>
       </c>
+      <c r="M551" s="5"/>
     </row>
     <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
@@ -21400,6 +21742,9 @@
       </c>
       <c r="L552" t="s">
         <v>28</v>
+      </c>
+      <c r="M552" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="553" spans="1:15" x14ac:dyDescent="0.2">
@@ -21435,8 +21780,8 @@
       <c r="L553" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M553" s="1">
-        <v>72</v>
+      <c r="M553" s="3">
+        <v>1.54805418189637E-3</v>
       </c>
       <c r="N553" s="1"/>
       <c r="O553" s="1">
@@ -21476,9 +21821,7 @@
       <c r="L554" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M554" s="3">
-        <v>1.54805418189637E-3</v>
-      </c>
+      <c r="M554" s="5"/>
       <c r="N554" s="3"/>
       <c r="O554" s="3">
         <v>1.54805418189637E-3</v>
@@ -21521,6 +21864,7 @@
       <c r="L555" t="s">
         <v>26</v>
       </c>
+      <c r="M555" s="5"/>
     </row>
     <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
@@ -21553,6 +21897,7 @@
       <c r="L556" t="s">
         <v>27</v>
       </c>
+      <c r="M556" s="5"/>
     </row>
     <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
@@ -21584,6 +21929,9 @@
       </c>
       <c r="L557" t="s">
         <v>28</v>
+      </c>
+      <c r="M557" s="1">
+        <v>2431</v>
       </c>
     </row>
     <row r="558" spans="1:15" x14ac:dyDescent="0.2">
@@ -21619,8 +21967,8 @@
       <c r="L558" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M558" s="1">
-        <v>2431</v>
+      <c r="M558" s="3">
+        <v>7.7566127436903706E-2</v>
       </c>
       <c r="N558" s="1">
         <v>2431</v>
@@ -21660,9 +22008,7 @@
       <c r="L559" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M559" s="3">
-        <v>7.7566127436903706E-2</v>
-      </c>
+      <c r="M559" s="5"/>
       <c r="N559" s="3">
         <v>7.7566127436903706E-2</v>
       </c>
@@ -21705,6 +22051,7 @@
       <c r="L560" t="s">
         <v>26</v>
       </c>
+      <c r="M560" s="5"/>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
@@ -21737,6 +22084,7 @@
       <c r="L561" t="s">
         <v>27</v>
       </c>
+      <c r="M561" s="5"/>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
@@ -21768,6 +22116,9 @@
       </c>
       <c r="L562" t="s">
         <v>28</v>
+      </c>
+      <c r="M562" s="1">
+        <v>290</v>
       </c>
     </row>
     <row r="563" spans="1:15" x14ac:dyDescent="0.2">
@@ -21803,8 +22154,8 @@
       <c r="L563" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M563" s="1">
-        <v>290</v>
+      <c r="M563" s="3">
+        <v>6.2352182326381404E-3</v>
       </c>
       <c r="N563" s="1"/>
       <c r="O563" s="1">
@@ -21844,9 +22195,7 @@
       <c r="L564" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M564" s="3">
-        <v>6.2352182326381404E-3</v>
-      </c>
+      <c r="M564" s="5"/>
       <c r="N564" s="3"/>
       <c r="O564" s="3">
         <v>6.2352182326381404E-3</v>
@@ -21889,6 +22238,7 @@
       <c r="L565" t="s">
         <v>26</v>
       </c>
+      <c r="M565" s="5"/>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
@@ -21921,6 +22271,7 @@
       <c r="L566" t="s">
         <v>27</v>
       </c>
+      <c r="M566" s="5"/>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
@@ -21952,6 +22303,9 @@
       </c>
       <c r="L567" t="s">
         <v>28</v>
+      </c>
+      <c r="M567" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.2">
@@ -21987,8 +22341,8 @@
       <c r="L568" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M568" s="1">
-        <v>34</v>
+      <c r="M568" s="3">
+        <v>7.31025585895506E-4</v>
       </c>
       <c r="N568" s="1"/>
       <c r="O568" s="1">
@@ -22028,9 +22382,7 @@
       <c r="L569" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M569" s="3">
-        <v>7.31025585895506E-4</v>
-      </c>
+      <c r="M569" s="5"/>
       <c r="N569" s="3"/>
       <c r="O569" s="3">
         <v>7.31025585895506E-4</v>
@@ -22073,6 +22425,7 @@
       <c r="L570" t="s">
         <v>26</v>
       </c>
+      <c r="M570" s="5"/>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
@@ -22105,6 +22458,7 @@
       <c r="L571" t="s">
         <v>27</v>
       </c>
+      <c r="M571" s="5"/>
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
@@ -22136,6 +22490,9 @@
       </c>
       <c r="L572" t="s">
         <v>28</v>
+      </c>
+      <c r="M572" s="1">
+        <v>994</v>
       </c>
     </row>
     <row r="573" spans="1:15" x14ac:dyDescent="0.2">
@@ -22171,8 +22528,8 @@
       <c r="L573" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M573" s="1">
-        <v>994</v>
+      <c r="M573" s="3">
+        <v>2.13717480111804E-2</v>
       </c>
       <c r="N573" s="1"/>
       <c r="O573" s="1">
@@ -22212,9 +22569,7 @@
       <c r="L574" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M574" s="3">
-        <v>2.13717480111804E-2</v>
-      </c>
+      <c r="M574" s="5"/>
       <c r="N574" s="3"/>
       <c r="O574" s="3">
         <v>2.13717480111804E-2</v>
@@ -22257,6 +22612,7 @@
       <c r="L575" t="s">
         <v>26</v>
       </c>
+      <c r="M575" s="5"/>
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
@@ -22289,6 +22645,7 @@
       <c r="L576" t="s">
         <v>27</v>
       </c>
+      <c r="M576" s="5"/>
     </row>
     <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
@@ -22320,6 +22677,9 @@
       </c>
       <c r="L577" t="s">
         <v>28</v>
+      </c>
+      <c r="M577" s="1">
+        <v>497</v>
       </c>
     </row>
     <row r="578" spans="1:15" x14ac:dyDescent="0.2">
@@ -22355,8 +22715,8 @@
       <c r="L578" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M578" s="1">
-        <v>497</v>
+      <c r="M578" s="3">
+        <v>1.06858740055902E-2</v>
       </c>
       <c r="N578" s="1"/>
       <c r="O578" s="1">
@@ -22396,9 +22756,7 @@
       <c r="L579" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M579" s="3">
-        <v>1.06858740055902E-2</v>
-      </c>
+      <c r="M579" s="5"/>
       <c r="N579" s="3"/>
       <c r="O579" s="3">
         <v>1.06858740055902E-2</v>
@@ -22441,6 +22799,7 @@
       <c r="L580" t="s">
         <v>26</v>
       </c>
+      <c r="M580" s="5"/>
     </row>
     <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
@@ -22473,6 +22832,7 @@
       <c r="L581" t="s">
         <v>27</v>
       </c>
+      <c r="M581" s="5"/>
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
@@ -22504,6 +22864,9 @@
       </c>
       <c r="L582" t="s">
         <v>28</v>
+      </c>
+      <c r="M582" s="1">
+        <v>6532</v>
       </c>
     </row>
     <row r="583" spans="1:15" x14ac:dyDescent="0.2">
@@ -22539,8 +22902,8 @@
       <c r="L583" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M583" s="1">
-        <v>6532</v>
+      <c r="M583" s="3">
+        <v>0.14044291550204299</v>
       </c>
       <c r="N583" s="1">
         <v>3869</v>
@@ -22582,9 +22945,7 @@
       <c r="L584" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M584" s="3">
-        <v>0.14044291550204299</v>
-      </c>
+      <c r="M584" s="5"/>
       <c r="N584" s="3">
         <v>0.123448517915829</v>
       </c>
@@ -22629,6 +22990,7 @@
       <c r="L585" t="s">
         <v>26</v>
       </c>
+      <c r="M585" s="5"/>
     </row>
     <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
@@ -22661,6 +23023,7 @@
       <c r="L586" t="s">
         <v>27</v>
       </c>
+      <c r="M586" s="5"/>
     </row>
     <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
@@ -22692,6 +23055,9 @@
       </c>
       <c r="L587" t="s">
         <v>28</v>
+      </c>
+      <c r="M587" s="1">
+        <v>614</v>
       </c>
     </row>
     <row r="588" spans="1:15" x14ac:dyDescent="0.2">
@@ -22727,8 +23093,8 @@
       <c r="L588" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M588" s="1">
-        <v>614</v>
+      <c r="M588" s="3">
+        <v>1.32014620511718E-2</v>
       </c>
       <c r="N588" s="1">
         <v>172</v>
@@ -22770,9 +23136,7 @@
       <c r="L589" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M589" s="3">
-        <v>1.32014620511718E-2</v>
-      </c>
+      <c r="M589" s="5"/>
       <c r="N589" s="3">
         <v>5.4880188889952497E-3</v>
       </c>
@@ -22817,6 +23181,7 @@
       <c r="L590" t="s">
         <v>26</v>
       </c>
+      <c r="M590" s="5"/>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
@@ -22849,6 +23214,7 @@
       <c r="L591" t="s">
         <v>27</v>
       </c>
+      <c r="M591" s="5"/>
     </row>
     <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
@@ -22880,6 +23246,9 @@
       </c>
       <c r="L592" t="s">
         <v>28</v>
+      </c>
+      <c r="M592" s="1">
+        <v>159</v>
       </c>
     </row>
     <row r="593" spans="1:15" x14ac:dyDescent="0.2">
@@ -22915,8 +23284,8 @@
       <c r="L593" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M593" s="1">
-        <v>159</v>
+      <c r="M593" s="3">
+        <v>3.41861965168781E-3</v>
       </c>
       <c r="N593" s="1">
         <v>52</v>
@@ -22958,9 +23327,7 @@
       <c r="L594" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M594" s="3">
-        <v>3.41861965168781E-3</v>
-      </c>
+      <c r="M594" s="5"/>
       <c r="N594" s="3">
         <v>1.6591685013241399E-3</v>
       </c>
@@ -23005,6 +23372,7 @@
       <c r="L595" t="s">
         <v>26</v>
       </c>
+      <c r="M595" s="5"/>
     </row>
     <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
@@ -23037,6 +23405,7 @@
       <c r="L596" t="s">
         <v>27</v>
       </c>
+      <c r="M596" s="5"/>
     </row>
     <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
@@ -23068,6 +23437,9 @@
       </c>
       <c r="L597" t="s">
         <v>28</v>
+      </c>
+      <c r="M597" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:15" x14ac:dyDescent="0.2">
@@ -23103,8 +23475,8 @@
       <c r="L598" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M598" s="1">
-        <v>1</v>
+      <c r="M598" s="3">
+        <v>2.1500752526338401E-5</v>
       </c>
       <c r="N598" s="1"/>
       <c r="O598" s="1">
@@ -23144,9 +23516,7 @@
       <c r="L599" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M599" s="3">
-        <v>2.1500752526338401E-5</v>
-      </c>
+      <c r="M599" s="5"/>
       <c r="N599" s="3"/>
       <c r="O599" s="3">
         <v>2.1500752526338401E-5</v>
@@ -23189,6 +23559,7 @@
       <c r="L600" t="s">
         <v>26</v>
       </c>
+      <c r="M600" s="5"/>
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
@@ -23221,6 +23592,7 @@
       <c r="L601" t="s">
         <v>27</v>
       </c>
+      <c r="M601" s="5"/>
     </row>
     <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
@@ -23252,6 +23624,9 @@
       </c>
       <c r="L602" t="s">
         <v>28</v>
+      </c>
+      <c r="M602" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:15" x14ac:dyDescent="0.2">
@@ -23287,8 +23662,8 @@
       <c r="L603" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M603" s="1">
-        <v>5</v>
+      <c r="M603" s="3">
+        <v>1.07503762631692E-4</v>
       </c>
       <c r="N603" s="1"/>
       <c r="O603" s="1">
@@ -23328,9 +23703,7 @@
       <c r="L604" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M604" s="3">
-        <v>1.07503762631692E-4</v>
-      </c>
+      <c r="M604" s="5"/>
       <c r="N604" s="3"/>
       <c r="O604" s="3">
         <v>1.07503762631692E-4</v>
@@ -23373,6 +23746,7 @@
       <c r="L605" t="s">
         <v>26</v>
       </c>
+      <c r="M605" s="5"/>
     </row>
     <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
@@ -23405,6 +23779,7 @@
       <c r="L606" t="s">
         <v>27</v>
       </c>
+      <c r="M606" s="5"/>
     </row>
     <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
@@ -23436,6 +23811,9 @@
       </c>
       <c r="L607" t="s">
         <v>28</v>
+      </c>
+      <c r="M607" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="608" spans="1:15" x14ac:dyDescent="0.2">
@@ -23471,8 +23849,8 @@
       <c r="L608" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M608" s="1">
-        <v>5</v>
+      <c r="M608" s="3">
+        <v>1.07503762631692E-4</v>
       </c>
       <c r="N608" s="1"/>
       <c r="O608" s="1">
@@ -23512,9 +23890,7 @@
       <c r="L609" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M609" s="3">
-        <v>1.07503762631692E-4</v>
-      </c>
+      <c r="M609" s="5"/>
       <c r="N609" s="3"/>
       <c r="O609" s="3">
         <v>1.07503762631692E-4</v>
@@ -23557,6 +23933,7 @@
       <c r="L610" t="s">
         <v>26</v>
       </c>
+      <c r="M610" s="5"/>
     </row>
     <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
@@ -23589,6 +23966,7 @@
       <c r="L611" t="s">
         <v>27</v>
       </c>
+      <c r="M611" s="5"/>
     </row>
     <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
@@ -23620,6 +23998,9 @@
       </c>
       <c r="L612" t="s">
         <v>28</v>
+      </c>
+      <c r="M612" s="1">
+        <v>295</v>
       </c>
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.2">
@@ -23655,8 +24036,8 @@
       <c r="L613" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M613" s="1">
-        <v>295</v>
+      <c r="M613" s="3">
+        <v>7.3386299097029503E-3</v>
       </c>
       <c r="N613" s="1">
         <v>230</v>
@@ -23698,9 +24079,7 @@
       <c r="L614" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M614" s="3">
-        <v>7.3386299097029503E-3</v>
-      </c>
+      <c r="M614" s="5"/>
       <c r="N614" s="3">
         <v>7.3386299097029503E-3</v>
       </c>
@@ -23745,6 +24124,7 @@
       <c r="L615" t="s">
         <v>26</v>
       </c>
+      <c r="M615" s="5"/>
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
@@ -23777,6 +24157,7 @@
       <c r="L616" t="s">
         <v>27</v>
       </c>
+      <c r="M616" s="5"/>
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
@@ -23808,6 +24189,9 @@
       </c>
       <c r="L617" t="s">
         <v>28</v>
+      </c>
+      <c r="M617" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="618" spans="1:15" x14ac:dyDescent="0.2">
@@ -23843,8 +24227,8 @@
       <c r="L618" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M618" s="1">
-        <v>4</v>
+      <c r="M618" s="3">
+        <v>8.6003010105353698E-5</v>
       </c>
       <c r="N618" s="1"/>
       <c r="O618" s="1">
@@ -23884,9 +24268,7 @@
       <c r="L619" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M619" s="3">
-        <v>8.6003010105353698E-5</v>
-      </c>
+      <c r="M619" s="5"/>
       <c r="N619" s="3"/>
       <c r="O619" s="3">
         <v>8.6003010105353698E-5</v>
@@ -23929,6 +24311,7 @@
       <c r="L620" t="s">
         <v>26</v>
       </c>
+      <c r="M620" s="5"/>
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
@@ -23961,6 +24344,7 @@
       <c r="L621" t="s">
         <v>27</v>
       </c>
+      <c r="M621" s="5"/>
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
@@ -23992,6 +24376,9 @@
       </c>
       <c r="L622" t="s">
         <v>28</v>
+      </c>
+      <c r="M622" s="1">
+        <v>187</v>
       </c>
     </row>
     <row r="623" spans="1:15" x14ac:dyDescent="0.2">
@@ -24027,8 +24414,8 @@
       <c r="L623" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M623" s="1">
-        <v>187</v>
+      <c r="M623" s="3">
+        <v>4.0206407224252904E-3</v>
       </c>
       <c r="N623" s="1"/>
       <c r="O623" s="1">
@@ -24068,9 +24455,7 @@
       <c r="L624" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M624" s="3">
-        <v>4.0206407224252904E-3</v>
-      </c>
+      <c r="M624" s="5"/>
       <c r="N624" s="3"/>
       <c r="O624" s="3">
         <v>4.0206407224252904E-3</v>
@@ -24113,6 +24498,7 @@
       <c r="L625" t="s">
         <v>26</v>
       </c>
+      <c r="M625" s="5"/>
     </row>
     <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
@@ -24145,6 +24531,7 @@
       <c r="L626" t="s">
         <v>27</v>
       </c>
+      <c r="M626" s="5"/>
     </row>
     <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
@@ -24176,6 +24563,9 @@
       </c>
       <c r="L627" t="s">
         <v>28</v>
+      </c>
+      <c r="M627" s="1">
+        <v>3296</v>
       </c>
     </row>
     <row r="628" spans="1:15" x14ac:dyDescent="0.2">
@@ -24211,8 +24601,8 @@
       <c r="L628" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M628" s="1">
-        <v>3296</v>
+      <c r="M628" s="3">
+        <v>0.1051657573147</v>
       </c>
       <c r="N628" s="1">
         <v>3296</v>
@@ -24252,9 +24642,7 @@
       <c r="L629" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M629" s="3">
-        <v>0.1051657573147</v>
-      </c>
+      <c r="M629" s="5"/>
       <c r="N629" s="3">
         <v>0.1051657573147</v>
       </c>
@@ -24297,6 +24685,7 @@
       <c r="L630" t="s">
         <v>26</v>
       </c>
+      <c r="M630" s="5"/>
     </row>
     <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
@@ -24329,6 +24718,7 @@
       <c r="L631" t="s">
         <v>27</v>
       </c>
+      <c r="M631" s="5"/>
     </row>
     <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
@@ -24360,6 +24750,9 @@
       </c>
       <c r="L632" t="s">
         <v>28</v>
+      </c>
+      <c r="M632" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:15" x14ac:dyDescent="0.2">
@@ -24395,8 +24788,8 @@
       <c r="L633" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M633" s="1">
-        <v>1</v>
+      <c r="M633" s="3">
+        <v>2.1500752526338401E-5</v>
       </c>
       <c r="N633" s="1"/>
       <c r="O633" s="1">
@@ -24436,9 +24829,7 @@
       <c r="L634" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M634" s="3">
-        <v>2.1500752526338401E-5</v>
-      </c>
+      <c r="M634" s="5"/>
       <c r="N634" s="3"/>
       <c r="O634" s="3">
         <v>2.1500752526338401E-5</v>
@@ -24481,6 +24872,7 @@
       <c r="L635" t="s">
         <v>26</v>
       </c>
+      <c r="M635" s="5"/>
     </row>
     <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
@@ -24513,6 +24905,7 @@
       <c r="L636" t="s">
         <v>27</v>
       </c>
+      <c r="M636" s="5"/>
     </row>
     <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
@@ -24544,6 +24937,9 @@
       </c>
       <c r="L637" t="s">
         <v>28</v>
+      </c>
+      <c r="M637" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.2">
@@ -24579,8 +24975,8 @@
       <c r="L638" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M638" s="1">
-        <v>2</v>
+      <c r="M638" s="3">
+        <v>4.3001505052676801E-5</v>
       </c>
       <c r="N638" s="1"/>
       <c r="O638" s="1">
@@ -24620,9 +25016,7 @@
       <c r="L639" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M639" s="3">
-        <v>4.3001505052676801E-5</v>
-      </c>
+      <c r="M639" s="5"/>
       <c r="N639" s="3"/>
       <c r="O639" s="3">
         <v>4.3001505052676801E-5</v>
@@ -24665,6 +25059,7 @@
       <c r="L640" t="s">
         <v>26</v>
       </c>
+      <c r="M640" s="5"/>
     </row>
     <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
@@ -24697,6 +25092,7 @@
       <c r="L641" t="s">
         <v>27</v>
       </c>
+      <c r="M641" s="5"/>
     </row>
     <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
@@ -24728,6 +25124,9 @@
       </c>
       <c r="L642" t="s">
         <v>28</v>
+      </c>
+      <c r="M642" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="643" spans="1:15" x14ac:dyDescent="0.2">
@@ -24763,8 +25162,8 @@
       <c r="L643" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M643" s="1">
-        <v>3</v>
+      <c r="M643" s="3">
+        <v>6.45022575790153E-5</v>
       </c>
       <c r="N643" s="1"/>
       <c r="O643" s="1">
@@ -24804,9 +25203,7 @@
       <c r="L644" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M644" s="3">
-        <v>6.45022575790153E-5</v>
-      </c>
+      <c r="M644" s="5"/>
       <c r="N644" s="3"/>
       <c r="O644" s="3">
         <v>6.45022575790153E-5</v>
@@ -24849,6 +25246,7 @@
       <c r="L645" t="s">
         <v>26</v>
       </c>
+      <c r="M645" s="5"/>
     </row>
     <row r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
@@ -24881,6 +25279,7 @@
       <c r="L646" t="s">
         <v>27</v>
       </c>
+      <c r="M646" s="5"/>
     </row>
     <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
@@ -24912,6 +25311,9 @@
       </c>
       <c r="L647" t="s">
         <v>28</v>
+      </c>
+      <c r="M647" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.2">
@@ -24947,8 +25349,8 @@
       <c r="L648" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M648" s="1">
-        <v>1</v>
+      <c r="M648" s="3">
+        <v>2.1500752526338401E-5</v>
       </c>
       <c r="N648" s="1"/>
       <c r="O648" s="1">
@@ -24988,9 +25390,7 @@
       <c r="L649" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M649" s="3">
-        <v>2.1500752526338401E-5</v>
-      </c>
+      <c r="M649" s="5"/>
       <c r="N649" s="3"/>
       <c r="O649" s="3">
         <v>2.1500752526338401E-5</v>
@@ -25033,6 +25433,7 @@
       <c r="L650" t="s">
         <v>26</v>
       </c>
+      <c r="M650" s="5"/>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
@@ -25065,6 +25466,7 @@
       <c r="L651" t="s">
         <v>27</v>
       </c>
+      <c r="M651" s="5"/>
     </row>
     <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
@@ -25096,6 +25498,9 @@
       </c>
       <c r="L652" t="s">
         <v>28</v>
+      </c>
+      <c r="M652" s="1">
+        <v>3346</v>
       </c>
     </row>
     <row r="653" spans="1:15" x14ac:dyDescent="0.2">
@@ -25131,8 +25536,8 @@
       <c r="L653" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M653" s="1">
-        <v>3346</v>
+      <c r="M653" s="3">
+        <v>7.1941517953128406E-2</v>
       </c>
       <c r="N653" s="1">
         <v>1423</v>
@@ -25174,9 +25579,7 @@
       <c r="L654" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M654" s="3">
-        <v>7.1941517953128406E-2</v>
-      </c>
+      <c r="M654" s="5"/>
       <c r="N654" s="3">
         <v>4.5403784180466498E-2</v>
       </c>
@@ -25221,6 +25624,7 @@
       <c r="L655" t="s">
         <v>26</v>
       </c>
+      <c r="M655" s="5"/>
     </row>
     <row r="656" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
@@ -25253,6 +25657,7 @@
       <c r="L656" t="s">
         <v>27</v>
       </c>
+      <c r="M656" s="5"/>
     </row>
     <row r="657" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
@@ -25284,6 +25689,9 @@
       </c>
       <c r="L657" t="s">
         <v>28</v>
+      </c>
+      <c r="M657" s="1">
+        <v>7700</v>
       </c>
     </row>
     <row r="658" spans="1:15" x14ac:dyDescent="0.2">
@@ -25319,8 +25727,8 @@
       <c r="L658" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M658" s="1">
-        <v>7700</v>
+      <c r="M658" s="3">
+        <v>0.16555579445280599</v>
       </c>
       <c r="N658" s="1">
         <v>3701</v>
@@ -25362,9 +25770,7 @@
       <c r="L659" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M659" s="3">
-        <v>0.16555579445280599</v>
-      </c>
+      <c r="M659" s="5"/>
       <c r="N659" s="3">
         <v>0.11808812737309</v>
       </c>
@@ -25409,6 +25815,7 @@
       <c r="L660" t="s">
         <v>26</v>
       </c>
+      <c r="M660" s="5"/>
     </row>
     <row r="661" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
@@ -25441,6 +25848,7 @@
       <c r="L661" t="s">
         <v>27</v>
       </c>
+      <c r="M661" s="5"/>
     </row>
     <row r="662" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
@@ -25472,6 +25880,9 @@
       </c>
       <c r="L662" t="s">
         <v>28</v>
+      </c>
+      <c r="M662" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="663" spans="1:15" x14ac:dyDescent="0.2">
@@ -25507,8 +25918,8 @@
       <c r="L663" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M663" s="2">
-        <v>237</v>
+      <c r="M663" s="4">
+        <v>-1.6591685013241399E-3</v>
       </c>
       <c r="N663" s="2">
         <v>52</v>
@@ -25550,9 +25961,7 @@
       <c r="L664" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M664" s="4">
-        <v>-1.6591685013241399E-3</v>
-      </c>
+      <c r="M664" s="5"/>
       <c r="N664" s="4">
         <v>-1.6591685013241399E-3</v>
       </c>
@@ -25597,6 +26006,7 @@
       <c r="L665" t="s">
         <v>26</v>
       </c>
+      <c r="M665" s="5"/>
     </row>
     <row r="666" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
@@ -25635,6 +26045,7 @@
       <c r="L666" t="s">
         <v>27</v>
       </c>
+      <c r="M666" s="5"/>
     </row>
     <row r="667" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
@@ -25666,6 +26077,9 @@
       </c>
       <c r="L667" t="s">
         <v>28</v>
+      </c>
+      <c r="M667" s="2">
+        <v>1108</v>
       </c>
     </row>
     <row r="668" spans="1:15" x14ac:dyDescent="0.2">
@@ -25701,8 +26115,8 @@
       <c r="L668" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M668" s="2">
-        <v>1108</v>
+      <c r="M668" s="4">
+        <v>-9.7316614019973807E-3</v>
       </c>
       <c r="N668" s="2">
         <v>305</v>
@@ -25744,9 +26158,7 @@
       <c r="L669" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M669" s="4">
-        <v>-9.7316614019973807E-3</v>
-      </c>
+      <c r="M669" s="5"/>
       <c r="N669" s="4">
         <v>-9.7316614019973807E-3</v>
       </c>
@@ -25791,6 +26203,7 @@
       <c r="L670" t="s">
         <v>26</v>
       </c>
+      <c r="M670" s="5"/>
     </row>
     <row r="671" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
@@ -25829,6 +26242,7 @@
       <c r="L671" t="s">
         <v>27</v>
       </c>
+      <c r="M671" s="5"/>
     </row>
     <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
@@ -25860,6 +26274,9 @@
       </c>
       <c r="L672" t="s">
         <v>28</v>
+      </c>
+      <c r="M672" s="2">
+        <v>1146</v>
       </c>
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.2">
@@ -25895,8 +26312,8 @@
       <c r="L673" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M673" s="2">
-        <v>1146</v>
+      <c r="M673" s="4">
+        <v>-2.4639862395183801E-2</v>
       </c>
       <c r="N673" s="2"/>
       <c r="O673" s="2">
@@ -25936,9 +26353,7 @@
       <c r="L674" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M674" s="4">
-        <v>-2.4639862395183801E-2</v>
-      </c>
+      <c r="M674" s="5"/>
       <c r="N674" s="4"/>
       <c r="O674" s="4">
         <v>-2.4639862395183801E-2</v>
@@ -25981,6 +26396,7 @@
       <c r="L675" t="s">
         <v>26</v>
       </c>
+      <c r="M675" s="5"/>
     </row>
     <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
@@ -26013,6 +26429,7 @@
       <c r="L676" t="s">
         <v>27</v>
       </c>
+      <c r="M676" s="5"/>
     </row>
     <row r="677" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
@@ -26044,6 +26461,9 @@
       </c>
       <c r="L677" t="s">
         <v>28</v>
+      </c>
+      <c r="M677" s="2">
+        <v>580</v>
       </c>
     </row>
     <row r="678" spans="1:15" x14ac:dyDescent="0.2">
@@ -26079,8 +26499,8 @@
       <c r="L678" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M678" s="2">
-        <v>580</v>
+      <c r="M678" s="4">
+        <v>-1.8506110207077001E-2</v>
       </c>
       <c r="N678" s="2">
         <v>580</v>
@@ -26120,9 +26540,7 @@
       <c r="L679" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M679" s="4">
-        <v>-1.8506110207077001E-2</v>
-      </c>
+      <c r="M679" s="5"/>
       <c r="N679" s="4">
         <v>-1.8506110207077001E-2</v>
       </c>
@@ -26165,6 +26583,7 @@
       <c r="L680" t="s">
         <v>26</v>
       </c>
+      <c r="M680" s="5"/>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
@@ -26197,6 +26616,7 @@
       <c r="L681" t="s">
         <v>27</v>
       </c>
+      <c r="M681" s="5"/>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
@@ -26228,6 +26648,9 @@
       </c>
       <c r="L682" t="s">
         <v>28</v>
+      </c>
+      <c r="M682" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:15" x14ac:dyDescent="0.2">
@@ -26263,8 +26686,8 @@
       <c r="L683" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M683" s="2">
-        <v>1</v>
+      <c r="M683" s="4">
+        <v>-2.1500752526338401E-5</v>
       </c>
       <c r="N683" s="2"/>
       <c r="O683" s="2">
@@ -26304,9 +26727,7 @@
       <c r="L684" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M684" s="4">
-        <v>-2.1500752526338401E-5</v>
-      </c>
+      <c r="M684" s="5"/>
       <c r="N684" s="4"/>
       <c r="O684" s="4">
         <v>-2.1500752526338401E-5</v>
@@ -26349,6 +26770,7 @@
       <c r="L685" t="s">
         <v>26</v>
       </c>
+      <c r="M685" s="5"/>
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
@@ -26381,6 +26803,7 @@
       <c r="L686" t="s">
         <v>27</v>
       </c>
+      <c r="M686" s="5"/>
     </row>
     <row r="687" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
@@ -26412,6 +26835,9 @@
       </c>
       <c r="L687" t="s">
         <v>28</v>
+      </c>
+      <c r="M687" s="2">
+        <v>1052</v>
       </c>
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.2">
@@ -26447,8 +26873,8 @@
       <c r="L688" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M688" s="2">
-        <v>1052</v>
+      <c r="M688" s="4">
+        <v>-2.2618791657707998E-2</v>
       </c>
       <c r="N688" s="2"/>
       <c r="O688" s="2">
@@ -26488,9 +26914,7 @@
       <c r="L689" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M689" s="4">
-        <v>-2.2618791657707998E-2</v>
-      </c>
+      <c r="M689" s="5"/>
       <c r="N689" s="4"/>
       <c r="O689" s="4">
         <v>-2.2618791657707998E-2</v>
@@ -26533,6 +26957,7 @@
       <c r="L690" t="s">
         <v>26</v>
       </c>
+      <c r="M690" s="5"/>
     </row>
     <row r="691" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
@@ -26565,6 +26990,7 @@
       <c r="L691" t="s">
         <v>27</v>
       </c>
+      <c r="M691" s="5"/>
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
